--- a/Entrega de Subnetting caso de estudio VLSM kjimenez shigidio.xlsx
+++ b/Entrega de Subnetting caso de estudio VLSM kjimenez shigidio.xlsx
@@ -1,14 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin\OneDrive - unicauca.edu.co\Documentos\8 semestre\Redes\CASO DE ESTUDIO\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19655776-A71A-454E-96CE-B708BF6ED6DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Popayan" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="ENLACE" sheetId="2" r:id="rId5"/>
+    <sheet name="Popayan" sheetId="1" r:id="rId1"/>
+    <sheet name="ENLACE" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="ZUuKKriSZIjAPJ1v+2+154hRrNXk2PPIzjV8x+cajGY="/>
     </ext>
@@ -1390,72 +1410,77 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="13">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="20.0"/>
+      <sz val="20"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
     </font>
-    <font/>
     <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="18.0"/>
+      <sz val="18"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="16.0"/>
+      <sz val="16"/>
       <color theme="0"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="16.0"/>
+      <sz val="16"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="16.0"/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="16.0"/>
+      <sz val="16"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="20.0"/>
+      <sz val="20"/>
       <color theme="0"/>
       <name val="Calibri"/>
     </font>
@@ -1465,7 +1490,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1529,15 +1554,26 @@
     </fill>
   </fills>
   <borders count="9">
-    <border/>
     <border>
       <left/>
+      <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1552,15 +1588,21 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1572,8 +1614,11 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -1583,172 +1628,157 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+  <cellXfs count="45">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="3" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="5" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="3" fillId="5" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="3" fillId="5" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="3" fillId="5" fontId="8" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="3" fontId="8" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="3" fillId="5" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="4" fillId="6" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="7" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="3" fillId="7" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="3" fillId="7" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="3" fillId="7" fontId="8" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="3" fillId="7" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="8" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="9" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="3" fillId="9" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="3" fillId="9" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="3" fillId="9" fontId="8" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="3" fontId="8" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="3" fillId="9" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="9" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="6" fillId="9" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="4" fillId="8" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="10" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="3" fontId="8" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="4" fillId="11" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="10" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="8" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="8" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
-      <font/>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFFFFF00"/>
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
-      <border/>
     </dxf>
   </dxfs>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1938,1226 +1968,1228 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:P991"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="I2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3:P28"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="19.29"/>
-    <col customWidth="1" min="2" max="2" width="23.86"/>
-    <col customWidth="1" min="3" max="3" width="11.43"/>
-    <col customWidth="1" min="4" max="4" width="14.71"/>
-    <col customWidth="1" min="5" max="5" width="18.86"/>
-    <col customWidth="1" min="6" max="6" width="22.57"/>
-    <col customWidth="1" min="7" max="7" width="17.0"/>
-    <col customWidth="1" min="8" max="8" width="21.71"/>
-    <col customWidth="1" min="9" max="9" width="23.57"/>
-    <col customWidth="1" min="10" max="10" width="20.14"/>
-    <col customWidth="1" min="11" max="11" width="34.14"/>
-    <col customWidth="1" min="12" max="26" width="9.14"/>
+    <col min="1" max="1" width="19.33203125" customWidth="1"/>
+    <col min="2" max="2" width="23.88671875" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="22.5546875" customWidth="1"/>
+    <col min="7" max="7" width="17" customWidth="1"/>
+    <col min="8" max="8" width="21.6640625" customWidth="1"/>
+    <col min="9" max="9" width="23.5546875" customWidth="1"/>
+    <col min="10" max="10" width="20.109375" customWidth="1"/>
+    <col min="11" max="11" width="34.109375" customWidth="1"/>
+    <col min="12" max="26" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="35.25" customHeight="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:16" ht="35.25" customHeight="1">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="G1" s="3" t="s">
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" s="2"/>
-      <c r="J1" s="1" t="s">
+      <c r="H1" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="38"/>
+      <c r="J1" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-    </row>
-    <row r="3">
-      <c r="B3" s="5" t="s">
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+    </row>
+    <row r="3" spans="1:16" ht="63">
+      <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="K3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="L3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="M3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="N3" s="9" t="s">
+      <c r="N3" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="10" t="s">
+    <row r="4" spans="1:16" ht="21">
+      <c r="A4" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="12">
-        <v>1.0</v>
-      </c>
-      <c r="D4" s="12">
-        <v>200.0</v>
-      </c>
-      <c r="E4" s="12">
-        <f t="shared" ref="E4:E27" si="1">2^(L4)-2</f>
+      <c r="C4" s="8">
+        <v>1</v>
+      </c>
+      <c r="D4" s="8">
+        <v>200</v>
+      </c>
+      <c r="E4" s="8">
+        <f t="shared" ref="E4:E27" si="0">2^(L4)-2</f>
         <v>254</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="14" t="s">
+      <c r="H4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="13" t="s">
+      <c r="I4" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="J4" s="13" t="s">
+      <c r="J4" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="K4" s="13" t="s">
+      <c r="K4" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="L4" s="15">
-        <v>8.0</v>
-      </c>
-      <c r="N4" s="16"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="17"/>
-      <c r="B5" s="11" t="s">
+      <c r="L4" s="10">
+        <v>8</v>
+      </c>
+      <c r="N4" s="11"/>
+    </row>
+    <row r="5" spans="1:16" ht="21">
+      <c r="A5" s="41"/>
+      <c r="B5" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="12">
-        <v>2.0</v>
-      </c>
-      <c r="D5" s="12">
-        <v>190.0</v>
-      </c>
-      <c r="E5" s="12">
-        <f t="shared" si="1"/>
+      <c r="C5" s="8">
+        <v>2</v>
+      </c>
+      <c r="D5" s="8">
+        <v>190</v>
+      </c>
+      <c r="E5" s="8">
+        <f t="shared" si="0"/>
         <v>254</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="14" t="s">
+      <c r="H5" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="13" t="s">
+      <c r="I5" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="J5" s="13" t="s">
+      <c r="J5" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="K5" s="13" t="s">
+      <c r="K5" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="L5" s="15">
-        <v>8.0</v>
-      </c>
-      <c r="M5" s="18">
-        <v>1.0</v>
-      </c>
-      <c r="N5" s="16">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="17"/>
-      <c r="B6" s="11" t="s">
+      <c r="L5" s="10">
+        <v>8</v>
+      </c>
+      <c r="M5" s="12">
+        <v>1</v>
+      </c>
+      <c r="N5" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="21">
+      <c r="A6" s="41"/>
+      <c r="B6" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="12">
-        <v>3.0</v>
-      </c>
-      <c r="D6" s="12">
-        <v>110.0</v>
-      </c>
-      <c r="E6" s="12">
-        <f t="shared" si="1"/>
+      <c r="C6" s="8">
+        <v>3</v>
+      </c>
+      <c r="D6" s="8">
+        <v>110</v>
+      </c>
+      <c r="E6" s="8">
+        <f t="shared" si="0"/>
         <v>126</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="G6" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="H6" s="14">
-        <v>2.55255255128E11</v>
-      </c>
-      <c r="I6" s="13" t="s">
+      <c r="H6" s="9">
+        <v>255255255128</v>
+      </c>
+      <c r="I6" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="J6" s="13" t="s">
+      <c r="J6" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="13" t="s">
+      <c r="K6" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="L6" s="15">
-        <v>7.0</v>
-      </c>
-      <c r="M6" s="18">
-        <v>1.0</v>
-      </c>
-      <c r="N6" s="16">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="17"/>
-      <c r="B7" s="11" t="s">
+      <c r="L6" s="10">
+        <v>7</v>
+      </c>
+      <c r="M6" s="12">
+        <v>1</v>
+      </c>
+      <c r="N6" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="21">
+      <c r="A7" s="41"/>
+      <c r="B7" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="12">
-        <v>4.0</v>
-      </c>
-      <c r="D7" s="12">
-        <v>98.0</v>
-      </c>
-      <c r="E7" s="12">
-        <f t="shared" si="1"/>
+      <c r="C7" s="8">
+        <v>4</v>
+      </c>
+      <c r="D7" s="8">
+        <v>98</v>
+      </c>
+      <c r="E7" s="8">
+        <f t="shared" si="0"/>
         <v>126</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="G7" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="14">
-        <v>2.55255255128E11</v>
-      </c>
-      <c r="I7" s="13" t="s">
+      <c r="H7" s="9">
+        <v>255255255128</v>
+      </c>
+      <c r="I7" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="J7" s="19" t="s">
+      <c r="J7" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="K7" s="19" t="s">
+      <c r="K7" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="L7" s="15">
-        <v>7.0</v>
-      </c>
-      <c r="M7" s="18">
-        <v>128.0</v>
-      </c>
-      <c r="N7" s="16">
-        <v>4.0</v>
-      </c>
-      <c r="P7" s="20">
+      <c r="L7" s="10">
+        <v>7</v>
+      </c>
+      <c r="M7" s="12">
+        <v>128</v>
+      </c>
+      <c r="N7" s="11">
+        <v>4</v>
+      </c>
+      <c r="P7" s="14">
         <f>128+128</f>
         <v>256</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="17"/>
-      <c r="B8" s="11" t="s">
+    <row r="8" spans="1:16" ht="21">
+      <c r="A8" s="41"/>
+      <c r="B8" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="12">
-        <v>5.0</v>
-      </c>
-      <c r="D8" s="12">
-        <v>50.0</v>
-      </c>
-      <c r="E8" s="12">
-        <f t="shared" si="1"/>
+      <c r="C8" s="8">
+        <v>5</v>
+      </c>
+      <c r="D8" s="8">
+        <v>50</v>
+      </c>
+      <c r="E8" s="8">
+        <f t="shared" si="0"/>
         <v>62</v>
       </c>
-      <c r="F8" s="19" t="s">
+      <c r="F8" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="G8" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="H8" s="14">
-        <v>2.55255255192E11</v>
-      </c>
-      <c r="I8" s="19" t="s">
+      <c r="H8" s="9">
+        <v>255255255192</v>
+      </c>
+      <c r="I8" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="J8" s="19" t="s">
+      <c r="J8" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="K8" s="19" t="s">
+      <c r="K8" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="L8" s="15">
-        <v>6.0</v>
-      </c>
-      <c r="M8" s="18">
-        <v>128.0</v>
-      </c>
-      <c r="N8" s="16">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="17"/>
-      <c r="B9" s="11" t="s">
+      <c r="L8" s="10">
+        <v>6</v>
+      </c>
+      <c r="M8" s="12">
+        <v>128</v>
+      </c>
+      <c r="N8" s="11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="21">
+      <c r="A9" s="41"/>
+      <c r="B9" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="12">
-        <v>6.0</v>
-      </c>
-      <c r="D9" s="12">
-        <v>40.0</v>
-      </c>
-      <c r="E9" s="12">
-        <f t="shared" si="1"/>
+      <c r="C9" s="8">
+        <v>6</v>
+      </c>
+      <c r="D9" s="8">
+        <v>40</v>
+      </c>
+      <c r="E9" s="8">
+        <f t="shared" si="0"/>
         <v>62</v>
       </c>
-      <c r="F9" s="19" t="s">
+      <c r="F9" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="G9" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="H9" s="14">
-        <v>2.55255255192E11</v>
-      </c>
-      <c r="I9" s="19" t="s">
+      <c r="H9" s="9">
+        <v>255255255192</v>
+      </c>
+      <c r="I9" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="J9" s="13" t="s">
+      <c r="J9" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="K9" s="13" t="s">
+      <c r="K9" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="L9" s="15">
-        <v>6.0</v>
-      </c>
-      <c r="M9" s="18">
-        <v>64.0</v>
-      </c>
-      <c r="N9" s="16">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="21" t="s">
+      <c r="L9" s="10">
+        <v>6</v>
+      </c>
+      <c r="M9" s="12">
+        <v>64</v>
+      </c>
+      <c r="N9" s="11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="21">
+      <c r="A10" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="23">
-        <v>1.0</v>
-      </c>
-      <c r="D10" s="23">
-        <v>300.0</v>
-      </c>
-      <c r="E10" s="23">
-        <f t="shared" si="1"/>
+      <c r="C10" s="16">
+        <v>1</v>
+      </c>
+      <c r="D10" s="16">
+        <v>300</v>
+      </c>
+      <c r="E10" s="16">
+        <f t="shared" si="0"/>
         <v>510</v>
       </c>
-      <c r="F10" s="24" t="s">
+      <c r="F10" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="G10" s="23" t="s">
+      <c r="G10" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="H10" s="25" t="s">
+      <c r="H10" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="I10" s="24" t="s">
+      <c r="I10" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="J10" s="24" t="s">
+      <c r="J10" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="K10" s="24" t="s">
+      <c r="K10" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="L10" s="26">
-        <v>9.0</v>
-      </c>
-      <c r="M10" s="18">
-        <v>64.0</v>
-      </c>
-      <c r="N10" s="16">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="17"/>
-      <c r="B11" s="22" t="s">
+      <c r="L10" s="18">
+        <v>9</v>
+      </c>
+      <c r="M10" s="12">
+        <v>64</v>
+      </c>
+      <c r="N10" s="11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="21">
+      <c r="A11" s="41"/>
+      <c r="B11" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="C11" s="23">
-        <v>2.0</v>
-      </c>
-      <c r="D11" s="23">
-        <v>224.0</v>
-      </c>
-      <c r="E11" s="23">
-        <f t="shared" si="1"/>
+      <c r="C11" s="16">
+        <v>2</v>
+      </c>
+      <c r="D11" s="16">
+        <v>224</v>
+      </c>
+      <c r="E11" s="16">
+        <f t="shared" si="0"/>
         <v>254</v>
       </c>
-      <c r="F11" s="24" t="s">
+      <c r="F11" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="G11" s="23" t="s">
+      <c r="G11" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="H11" s="25" t="s">
+      <c r="H11" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="I11" s="24" t="s">
+      <c r="I11" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="J11" s="24" t="s">
+      <c r="J11" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="K11" s="24" t="s">
+      <c r="K11" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="L11" s="26">
-        <v>8.0</v>
-      </c>
-      <c r="M11" s="18">
-        <v>2.0</v>
-      </c>
-      <c r="N11" s="16">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="17"/>
-      <c r="B12" s="22" t="s">
+      <c r="L11" s="18">
+        <v>8</v>
+      </c>
+      <c r="M11" s="12">
+        <v>2</v>
+      </c>
+      <c r="N11" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="21">
+      <c r="A12" s="41"/>
+      <c r="B12" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="C12" s="23">
-        <v>3.0</v>
-      </c>
-      <c r="D12" s="23">
-        <v>103.0</v>
-      </c>
-      <c r="E12" s="23">
-        <f t="shared" si="1"/>
+      <c r="C12" s="16">
+        <v>3</v>
+      </c>
+      <c r="D12" s="16">
+        <v>103</v>
+      </c>
+      <c r="E12" s="16">
+        <f t="shared" si="0"/>
         <v>126</v>
       </c>
-      <c r="F12" s="24" t="s">
+      <c r="F12" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="G12" s="23" t="s">
+      <c r="G12" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="H12" s="25">
-        <v>2.55255255128E11</v>
-      </c>
-      <c r="I12" s="24" t="s">
+      <c r="H12" s="17">
+        <v>255255255128</v>
+      </c>
+      <c r="I12" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="J12" s="24" t="s">
+      <c r="J12" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="K12" s="24" t="s">
+      <c r="K12" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="L12" s="26">
-        <v>7.0</v>
-      </c>
-      <c r="M12" s="18">
-        <v>1.0</v>
-      </c>
-      <c r="N12" s="16">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="17"/>
-      <c r="B13" s="22" t="s">
+      <c r="L12" s="18">
+        <v>7</v>
+      </c>
+      <c r="M12" s="12">
+        <v>1</v>
+      </c>
+      <c r="N12" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="21">
+      <c r="A13" s="41"/>
+      <c r="B13" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="C13" s="23">
-        <v>4.0</v>
-      </c>
-      <c r="D13" s="23">
-        <v>103.0</v>
-      </c>
-      <c r="E13" s="23">
-        <f t="shared" si="1"/>
+      <c r="C13" s="16">
+        <v>4</v>
+      </c>
+      <c r="D13" s="16">
+        <v>103</v>
+      </c>
+      <c r="E13" s="16">
+        <f t="shared" si="0"/>
         <v>126</v>
       </c>
-      <c r="F13" s="24" t="s">
+      <c r="F13" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="G13" s="23" t="s">
+      <c r="G13" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="H13" s="25">
-        <v>2.55255255128E11</v>
-      </c>
-      <c r="I13" s="24" t="s">
+      <c r="H13" s="17">
+        <v>255255255128</v>
+      </c>
+      <c r="I13" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="J13" s="24" t="s">
+      <c r="J13" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="K13" s="24" t="s">
+      <c r="K13" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="L13" s="26">
-        <v>7.0</v>
-      </c>
-      <c r="M13" s="18">
-        <v>128.0</v>
-      </c>
-      <c r="N13" s="16">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="17"/>
-      <c r="B14" s="22" t="s">
+      <c r="L13" s="18">
+        <v>7</v>
+      </c>
+      <c r="M13" s="12">
+        <v>128</v>
+      </c>
+      <c r="N13" s="11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="21">
+      <c r="A14" s="41"/>
+      <c r="B14" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="C14" s="23">
-        <v>5.0</v>
-      </c>
-      <c r="D14" s="23">
-        <v>92.0</v>
-      </c>
-      <c r="E14" s="23">
-        <f t="shared" si="1"/>
+      <c r="C14" s="16">
+        <v>5</v>
+      </c>
+      <c r="D14" s="16">
+        <v>92</v>
+      </c>
+      <c r="E14" s="16">
+        <f t="shared" si="0"/>
         <v>126</v>
       </c>
-      <c r="F14" s="24" t="s">
+      <c r="F14" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="G14" s="23" t="s">
+      <c r="G14" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="H14" s="25">
-        <v>2.55255255128E11</v>
-      </c>
-      <c r="I14" s="24" t="s">
+      <c r="H14" s="17">
+        <v>255255255128</v>
+      </c>
+      <c r="I14" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="J14" s="24" t="s">
+      <c r="J14" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="K14" s="24" t="s">
+      <c r="K14" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="L14" s="26">
-        <v>7.0</v>
-      </c>
-      <c r="M14" s="18">
-        <v>128.0</v>
-      </c>
-      <c r="N14" s="16">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="17"/>
-      <c r="B15" s="22" t="s">
+      <c r="L14" s="18">
+        <v>7</v>
+      </c>
+      <c r="M14" s="12">
+        <v>128</v>
+      </c>
+      <c r="N14" s="11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="21">
+      <c r="A15" s="41"/>
+      <c r="B15" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="C15" s="23">
-        <v>6.0</v>
-      </c>
-      <c r="D15" s="23">
-        <v>90.0</v>
-      </c>
-      <c r="E15" s="23">
-        <f t="shared" si="1"/>
+      <c r="C15" s="16">
+        <v>6</v>
+      </c>
+      <c r="D15" s="16">
+        <v>90</v>
+      </c>
+      <c r="E15" s="16">
+        <f t="shared" si="0"/>
         <v>126</v>
       </c>
-      <c r="F15" s="24" t="s">
+      <c r="F15" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="G15" s="23" t="s">
+      <c r="G15" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="H15" s="25">
-        <v>2.55255255128E11</v>
-      </c>
-      <c r="I15" s="24" t="s">
+      <c r="H15" s="17">
+        <v>255255255128</v>
+      </c>
+      <c r="I15" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="J15" s="24" t="s">
+      <c r="J15" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="K15" s="24" t="s">
+      <c r="K15" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="L15" s="26">
-        <v>7.0</v>
-      </c>
-      <c r="M15" s="18">
-        <v>128.0</v>
-      </c>
-      <c r="N15" s="16">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="17"/>
-      <c r="B16" s="22" t="s">
+      <c r="L15" s="18">
+        <v>7</v>
+      </c>
+      <c r="M15" s="12">
+        <v>128</v>
+      </c>
+      <c r="N15" s="11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="21">
+      <c r="A16" s="41"/>
+      <c r="B16" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="C16" s="23">
-        <v>7.0</v>
-      </c>
-      <c r="D16" s="23">
-        <v>50.0</v>
-      </c>
-      <c r="E16" s="23">
-        <f t="shared" si="1"/>
+      <c r="C16" s="16">
+        <v>7</v>
+      </c>
+      <c r="D16" s="16">
+        <v>50</v>
+      </c>
+      <c r="E16" s="16">
+        <f t="shared" si="0"/>
         <v>62</v>
       </c>
-      <c r="F16" s="24" t="s">
+      <c r="F16" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="G16" s="23" t="s">
+      <c r="G16" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="H16" s="25">
-        <v>2.55255255192E11</v>
-      </c>
-      <c r="I16" s="24" t="s">
+      <c r="H16" s="17">
+        <v>255255255192</v>
+      </c>
+      <c r="I16" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="J16" s="24" t="s">
+      <c r="J16" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="K16" s="24" t="s">
+      <c r="K16" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="L16" s="26">
-        <v>6.0</v>
-      </c>
-      <c r="M16" s="18">
-        <v>128.0</v>
-      </c>
-      <c r="N16" s="16">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="17"/>
-      <c r="B17" s="22" t="s">
+      <c r="L16" s="18">
+        <v>6</v>
+      </c>
+      <c r="M16" s="12">
+        <v>128</v>
+      </c>
+      <c r="N16" s="11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="21">
+      <c r="A17" s="41"/>
+      <c r="B17" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="C17" s="23">
-        <v>8.0</v>
-      </c>
-      <c r="D17" s="23">
-        <v>28.0</v>
-      </c>
-      <c r="E17" s="23">
-        <f t="shared" si="1"/>
+      <c r="C17" s="16">
+        <v>8</v>
+      </c>
+      <c r="D17" s="16">
+        <v>28</v>
+      </c>
+      <c r="E17" s="16">
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="F17" s="24" t="s">
+      <c r="F17" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="G17" s="23" t="s">
+      <c r="G17" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="H17" s="25">
-        <v>2.55255255224E11</v>
-      </c>
-      <c r="I17" s="24" t="s">
+      <c r="H17" s="17">
+        <v>255255255224</v>
+      </c>
+      <c r="I17" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="J17" s="24" t="s">
+      <c r="J17" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="K17" s="24" t="s">
+      <c r="K17" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="L17" s="26">
-        <v>5.0</v>
-      </c>
-      <c r="M17" s="18">
-        <v>64.0</v>
-      </c>
-      <c r="N17" s="16">
-        <v>4.0</v>
-      </c>
-      <c r="O17" s="20">
+      <c r="L17" s="18">
+        <v>5</v>
+      </c>
+      <c r="M17" s="12">
+        <v>64</v>
+      </c>
+      <c r="N17" s="11">
+        <v>4</v>
+      </c>
+      <c r="O17" s="14">
         <f>128+64</f>
         <v>192</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="27" t="s">
+    <row r="18" spans="1:16" ht="21">
+      <c r="A18" s="43" t="s">
         <v>96</v>
       </c>
-      <c r="B18" s="28" t="s">
+      <c r="B18" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="C18" s="29">
-        <v>1.0</v>
-      </c>
-      <c r="D18" s="29">
-        <v>402.0</v>
-      </c>
-      <c r="E18" s="29">
-        <f t="shared" si="1"/>
+      <c r="C18" s="21">
+        <v>1</v>
+      </c>
+      <c r="D18" s="21">
+        <v>402</v>
+      </c>
+      <c r="E18" s="21">
+        <f t="shared" si="0"/>
         <v>510</v>
       </c>
-      <c r="F18" s="30" t="s">
+      <c r="F18" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="G18" s="29" t="s">
+      <c r="G18" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="H18" s="31" t="s">
+      <c r="H18" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="I18" s="30" t="s">
+      <c r="I18" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="J18" s="30" t="s">
+      <c r="J18" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="K18" s="30" t="s">
+      <c r="K18" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="L18" s="32">
-        <v>9.0</v>
-      </c>
-      <c r="M18" s="18">
-        <v>32.0</v>
-      </c>
-      <c r="N18" s="16">
-        <v>4.0</v>
-      </c>
-      <c r="O18" s="20">
+      <c r="L18" s="23">
+        <v>9</v>
+      </c>
+      <c r="M18" s="12">
+        <v>32</v>
+      </c>
+      <c r="N18" s="11">
+        <v>4</v>
+      </c>
+      <c r="O18" s="14">
         <f>O17+32</f>
         <v>224</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="17"/>
-      <c r="B19" s="28" t="s">
+    <row r="19" spans="1:16" ht="21">
+      <c r="A19" s="41"/>
+      <c r="B19" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="C19" s="29">
-        <v>2.0</v>
-      </c>
-      <c r="D19" s="29">
-        <v>304.0</v>
-      </c>
-      <c r="E19" s="29">
-        <f t="shared" si="1"/>
+      <c r="C19" s="21">
+        <v>2</v>
+      </c>
+      <c r="D19" s="21">
+        <v>304</v>
+      </c>
+      <c r="E19" s="21">
+        <f t="shared" si="0"/>
         <v>510</v>
       </c>
-      <c r="F19" s="30" t="s">
+      <c r="F19" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="G19" s="29" t="s">
+      <c r="G19" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="H19" s="31" t="s">
+      <c r="H19" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="I19" s="30" t="s">
+      <c r="I19" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="J19" s="30" t="s">
+      <c r="J19" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="K19" s="30" t="s">
+      <c r="K19" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="L19" s="32">
-        <v>9.0</v>
-      </c>
-      <c r="M19" s="18">
-        <v>2.0</v>
-      </c>
-      <c r="N19" s="16">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="17"/>
-      <c r="B20" s="28" t="s">
+      <c r="L19" s="23">
+        <v>9</v>
+      </c>
+      <c r="M19" s="12">
+        <v>2</v>
+      </c>
+      <c r="N19" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="21">
+      <c r="A20" s="41"/>
+      <c r="B20" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="C20" s="29">
-        <v>3.0</v>
-      </c>
-      <c r="D20" s="29">
-        <v>228.0</v>
-      </c>
-      <c r="E20" s="29">
-        <f t="shared" si="1"/>
+      <c r="C20" s="21">
+        <v>3</v>
+      </c>
+      <c r="D20" s="21">
+        <v>228</v>
+      </c>
+      <c r="E20" s="21">
+        <f t="shared" si="0"/>
         <v>254</v>
       </c>
-      <c r="F20" s="30" t="s">
+      <c r="F20" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="G20" s="29" t="s">
+      <c r="G20" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="H20" s="31" t="s">
+      <c r="H20" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="I20" s="30" t="s">
+      <c r="I20" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="J20" s="30" t="s">
+      <c r="J20" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="K20" s="30" t="s">
+      <c r="K20" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="L20" s="32">
-        <v>8.0</v>
-      </c>
-      <c r="M20" s="18">
-        <v>2.0</v>
-      </c>
-      <c r="N20" s="16">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="17"/>
-      <c r="B21" s="28" t="s">
+      <c r="L20" s="23">
+        <v>8</v>
+      </c>
+      <c r="M20" s="12">
+        <v>2</v>
+      </c>
+      <c r="N20" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A21" s="41"/>
+      <c r="B21" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="C21" s="29">
-        <v>4.0</v>
-      </c>
-      <c r="D21" s="29">
-        <v>195.0</v>
-      </c>
-      <c r="E21" s="29">
-        <f t="shared" si="1"/>
+      <c r="C21" s="21">
+        <v>4</v>
+      </c>
+      <c r="D21" s="21">
+        <v>195</v>
+      </c>
+      <c r="E21" s="21">
+        <f t="shared" si="0"/>
         <v>254</v>
       </c>
-      <c r="F21" s="33" t="s">
+      <c r="F21" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="G21" s="29" t="s">
+      <c r="G21" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="H21" s="31" t="s">
+      <c r="H21" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="I21" s="33" t="s">
+      <c r="I21" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="J21" s="30" t="s">
+      <c r="J21" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="K21" s="30" t="s">
+      <c r="K21" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="L21" s="32">
-        <v>8.0</v>
-      </c>
-      <c r="M21" s="18">
-        <v>1.0</v>
-      </c>
-      <c r="N21" s="16">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="17"/>
-      <c r="B22" s="28" t="s">
+      <c r="L21" s="23">
+        <v>8</v>
+      </c>
+      <c r="M21" s="12">
+        <v>1</v>
+      </c>
+      <c r="N21" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A22" s="41"/>
+      <c r="B22" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="C22" s="29">
-        <v>5.0</v>
-      </c>
-      <c r="D22" s="29">
-        <v>106.0</v>
-      </c>
-      <c r="E22" s="29">
-        <f t="shared" si="1"/>
+      <c r="C22" s="21">
+        <v>5</v>
+      </c>
+      <c r="D22" s="21">
+        <v>106</v>
+      </c>
+      <c r="E22" s="21">
+        <f t="shared" si="0"/>
         <v>126</v>
       </c>
-      <c r="F22" s="33" t="s">
+      <c r="F22" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="G22" s="29" t="s">
+      <c r="G22" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="H22" s="31">
-        <v>2.55255255128E11</v>
-      </c>
-      <c r="I22" s="33" t="s">
+      <c r="H22" s="22">
+        <v>255255255128</v>
+      </c>
+      <c r="I22" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="J22" s="30" t="s">
+      <c r="J22" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="K22" s="30" t="s">
+      <c r="K22" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="L22" s="32">
-        <v>7.0</v>
-      </c>
-      <c r="M22" s="18">
-        <v>1.0</v>
-      </c>
-      <c r="N22" s="16">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="17"/>
-      <c r="B23" s="28" t="s">
+      <c r="L22" s="23">
+        <v>7</v>
+      </c>
+      <c r="M22" s="12">
+        <v>1</v>
+      </c>
+      <c r="N22" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A23" s="41"/>
+      <c r="B23" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="C23" s="29">
-        <v>6.0</v>
-      </c>
-      <c r="D23" s="29">
-        <v>96.0</v>
-      </c>
-      <c r="E23" s="29">
-        <f t="shared" si="1"/>
+      <c r="C23" s="21">
+        <v>6</v>
+      </c>
+      <c r="D23" s="21">
+        <v>96</v>
+      </c>
+      <c r="E23" s="21">
+        <f t="shared" si="0"/>
         <v>126</v>
       </c>
-      <c r="F23" s="33" t="s">
+      <c r="F23" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="G23" s="29" t="s">
+      <c r="G23" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="H23" s="31">
-        <v>2.55255255128E11</v>
-      </c>
-      <c r="I23" s="33" t="s">
+      <c r="H23" s="22">
+        <v>255255255128</v>
+      </c>
+      <c r="I23" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="J23" s="30" t="s">
+      <c r="J23" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="K23" s="30" t="s">
+      <c r="K23" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="L23" s="32">
-        <v>7.0</v>
-      </c>
-      <c r="M23" s="18">
-        <v>128.0</v>
-      </c>
-      <c r="N23" s="16">
-        <v>4.0</v>
-      </c>
-      <c r="O23" s="20">
+      <c r="L23" s="23">
+        <v>7</v>
+      </c>
+      <c r="M23" s="12">
+        <v>128</v>
+      </c>
+      <c r="N23" s="11">
+        <v>4</v>
+      </c>
+      <c r="O23" s="14">
         <f>224+128</f>
         <v>352</v>
       </c>
-      <c r="P23" s="20">
+      <c r="P23" s="14">
         <f>O23-255</f>
         <v>97</v>
       </c>
     </row>
-    <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="17"/>
-      <c r="B24" s="28" t="s">
+    <row r="24" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A24" s="41"/>
+      <c r="B24" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="C24" s="29">
-        <v>7.0</v>
-      </c>
-      <c r="D24" s="29">
-        <v>65.0</v>
-      </c>
-      <c r="E24" s="29">
-        <f t="shared" si="1"/>
+      <c r="C24" s="21">
+        <v>7</v>
+      </c>
+      <c r="D24" s="21">
+        <v>65</v>
+      </c>
+      <c r="E24" s="21">
+        <f t="shared" si="0"/>
         <v>126</v>
       </c>
-      <c r="F24" s="30" t="s">
+      <c r="F24" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="G24" s="29" t="s">
+      <c r="G24" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="H24" s="31">
-        <v>2.55255255128E11</v>
-      </c>
-      <c r="I24" s="30" t="s">
+      <c r="H24" s="22">
+        <v>255255255128</v>
+      </c>
+      <c r="I24" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="J24" s="30" t="s">
+      <c r="J24" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="K24" s="30" t="s">
+      <c r="K24" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="L24" s="32">
-        <v>7.0</v>
-      </c>
-      <c r="M24" s="18">
-        <v>128.0</v>
-      </c>
-      <c r="N24" s="16">
-        <v>4.0</v>
-      </c>
-      <c r="O24" s="20">
+      <c r="L24" s="23">
+        <v>7</v>
+      </c>
+      <c r="M24" s="12">
+        <v>128</v>
+      </c>
+      <c r="N24" s="11">
+        <v>4</v>
+      </c>
+      <c r="O24" s="14">
         <f>97+128</f>
         <v>225</v>
       </c>
     </row>
-    <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="17"/>
-      <c r="B25" s="28" t="s">
+    <row r="25" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A25" s="41"/>
+      <c r="B25" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="C25" s="29">
-        <v>8.0</v>
-      </c>
-      <c r="D25" s="29">
-        <v>45.0</v>
-      </c>
-      <c r="E25" s="29">
-        <f t="shared" si="1"/>
+      <c r="C25" s="21">
+        <v>8</v>
+      </c>
+      <c r="D25" s="21">
+        <v>45</v>
+      </c>
+      <c r="E25" s="21">
+        <f t="shared" si="0"/>
         <v>62</v>
       </c>
-      <c r="F25" s="30" t="s">
+      <c r="F25" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="G25" s="29" t="s">
+      <c r="G25" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="H25" s="31">
-        <v>2.55255255192E11</v>
-      </c>
-      <c r="I25" s="30" t="s">
+      <c r="H25" s="22">
+        <v>255255255192</v>
+      </c>
+      <c r="I25" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="J25" s="30" t="s">
+      <c r="J25" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="K25" s="30" t="s">
+      <c r="K25" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="L25" s="32">
-        <v>6.0</v>
-      </c>
-      <c r="M25" s="18">
-        <v>128.0</v>
-      </c>
-      <c r="N25" s="16">
-        <v>4.0</v>
-      </c>
-      <c r="O25" s="20">
+      <c r="L25" s="23">
+        <v>6</v>
+      </c>
+      <c r="M25" s="12">
+        <v>128</v>
+      </c>
+      <c r="N25" s="11">
+        <v>4</v>
+      </c>
+      <c r="O25" s="14">
         <f>225+128</f>
         <v>353</v>
       </c>
-      <c r="P25" s="20">
+      <c r="P25" s="14">
         <f>O25-255</f>
         <v>98</v>
       </c>
     </row>
-    <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="17"/>
-      <c r="B26" s="28" t="s">
+    <row r="26" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A26" s="41"/>
+      <c r="B26" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="C26" s="29">
-        <v>9.0</v>
-      </c>
-      <c r="D26" s="29">
-        <v>36.0</v>
-      </c>
-      <c r="E26" s="29">
-        <f t="shared" si="1"/>
+      <c r="C26" s="21">
+        <v>9</v>
+      </c>
+      <c r="D26" s="21">
+        <v>36</v>
+      </c>
+      <c r="E26" s="21">
+        <f t="shared" si="0"/>
         <v>62</v>
       </c>
-      <c r="F26" s="30" t="s">
+      <c r="F26" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="G26" s="29" t="s">
+      <c r="G26" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="H26" s="31">
-        <v>2.55255255192E11</v>
-      </c>
-      <c r="I26" s="30" t="s">
+      <c r="H26" s="22">
+        <v>255255255192</v>
+      </c>
+      <c r="I26" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="J26" s="30" t="s">
+      <c r="J26" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="K26" s="30" t="s">
+      <c r="K26" s="21" t="s">
         <v>141</v>
       </c>
-      <c r="L26" s="32">
-        <v>6.0</v>
-      </c>
-      <c r="M26" s="18">
-        <v>64.0</v>
-      </c>
-      <c r="N26" s="16">
-        <v>4.0</v>
-      </c>
-      <c r="O26" s="20">
+      <c r="L26" s="23">
+        <v>6</v>
+      </c>
+      <c r="M26" s="12">
+        <v>64</v>
+      </c>
+      <c r="N26" s="11">
+        <v>4</v>
+      </c>
+      <c r="O26" s="14">
         <f>98+64</f>
         <v>162</v>
       </c>
     </row>
-    <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="17"/>
-      <c r="B27" s="28" t="s">
+    <row r="27" spans="1:16" ht="15.75" customHeight="1">
+      <c r="A27" s="41"/>
+      <c r="B27" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="C27" s="34">
-        <v>10.0</v>
-      </c>
-      <c r="D27" s="29">
-        <v>14.0</v>
-      </c>
-      <c r="E27" s="29">
-        <f t="shared" si="1"/>
+      <c r="C27" s="25">
+        <v>10</v>
+      </c>
+      <c r="D27" s="21">
         <v>14</v>
       </c>
-      <c r="F27" s="30" t="s">
+      <c r="E27" s="21">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="F27" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="G27" s="29" t="s">
+      <c r="G27" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="H27" s="31">
-        <v>2.5525525524E11</v>
-      </c>
-      <c r="I27" s="30" t="s">
+      <c r="H27" s="22">
+        <v>255255255240</v>
+      </c>
+      <c r="I27" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="J27" s="30" t="s">
+      <c r="J27" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="K27" s="30" t="s">
+      <c r="K27" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="L27" s="32">
-        <v>4.0</v>
-      </c>
-      <c r="M27" s="18">
-        <v>64.0</v>
-      </c>
-      <c r="N27" s="16">
-        <v>4.0</v>
-      </c>
-      <c r="O27" s="20">
+      <c r="L27" s="23">
+        <v>4</v>
+      </c>
+      <c r="M27" s="12">
+        <v>64</v>
+      </c>
+      <c r="N27" s="11">
+        <v>4</v>
+      </c>
+      <c r="O27" s="14">
         <f>162+64</f>
         <v>226</v>
       </c>
     </row>
-    <row r="28" ht="15.75" customHeight="1">
-      <c r="D28" s="35" t="s">
+    <row r="28" spans="1:16" ht="15.75" customHeight="1">
+      <c r="D28" s="26" t="s">
         <v>148</v>
       </c>
-      <c r="E28" s="36">
+      <c r="E28" s="27">
         <f>SUM(E4:E27)</f>
         <v>4288</v>
       </c>
-      <c r="F28" s="30" t="s">
+      <c r="F28" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="M28" s="18">
-        <v>16.0</v>
-      </c>
-      <c r="N28" s="16">
-        <v>4.0</v>
-      </c>
-      <c r="O28" s="20">
+      <c r="M28" s="12">
+        <v>16</v>
+      </c>
+      <c r="N28" s="11">
+        <v>4</v>
+      </c>
+      <c r="O28" s="14">
         <f>O27+16</f>
         <v>242</v>
       </c>
     </row>
-    <row r="29" ht="15.75" customHeight="1">
-      <c r="D29" s="37" t="s">
+    <row r="29" spans="1:16" ht="15.75" customHeight="1">
+      <c r="D29" s="28" t="s">
         <v>150</v>
       </c>
-      <c r="E29" s="36">
+      <c r="E29" s="27">
         <f>ENLACE!D64</f>
         <v>120</v>
       </c>
     </row>
-    <row r="30" ht="15.75" customHeight="1">
-      <c r="D30" s="27" t="s">
+    <row r="30" spans="1:16" ht="15.75" customHeight="1">
+      <c r="D30" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="E30" s="38">
+      <c r="E30" s="29">
         <f>SUM(E28:E29)</f>
         <v>4408</v>
       </c>
     </row>
-    <row r="31" ht="15.75" customHeight="1">
-      <c r="D31" s="29" t="s">
+    <row r="31" spans="1:16" ht="15.75" customHeight="1">
+      <c r="D31" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="E31" s="29">
+      <c r="E31" s="21">
         <f>2^(L31)-2</f>
         <v>8190</v>
       </c>
-      <c r="F31" s="29"/>
-      <c r="G31" s="29"/>
-      <c r="H31" s="29"/>
-      <c r="I31" s="29"/>
-      <c r="J31" s="29"/>
-      <c r="K31" s="29"/>
-      <c r="L31" s="29">
-        <v>13.0</v>
-      </c>
-    </row>
-    <row r="32" ht="15.75" customHeight="1"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="21"/>
+      <c r="K31" s="21"/>
+      <c r="L31" s="21">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="15.75" customHeight="1"/>
     <row r="33" ht="15.75" customHeight="1"/>
     <row r="34" ht="15.75" customHeight="1"/>
     <row r="35" ht="15.75" customHeight="1"/>
@@ -4119,2277 +4151,2273 @@
     <row r="991" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A18:A27"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="J1:M1"/>
     <mergeCell ref="A4:A9"/>
     <mergeCell ref="A10:A17"/>
-    <mergeCell ref="A18:A27"/>
   </mergeCells>
   <conditionalFormatting sqref="E4">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThanOrEqual">
       <formula>"D4"</formula>
     </cfRule>
   </conditionalFormatting>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:M993"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="31.43"/>
-    <col customWidth="1" min="2" max="2" width="12.86"/>
-    <col customWidth="1" min="3" max="3" width="15.71"/>
-    <col customWidth="1" min="4" max="4" width="18.29"/>
-    <col customWidth="1" min="5" max="5" width="20.29"/>
-    <col customWidth="1" min="6" max="6" width="12.57"/>
-    <col customWidth="1" min="7" max="7" width="26.57"/>
-    <col customWidth="1" min="8" max="8" width="21.86"/>
-    <col customWidth="1" min="9" max="9" width="21.0"/>
-    <col customWidth="1" min="10" max="10" width="21.29"/>
-    <col customWidth="1" min="11" max="26" width="10.71"/>
+    <col min="1" max="1" width="31.44140625" customWidth="1"/>
+    <col min="2" max="2" width="12.88671875" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" customWidth="1"/>
+    <col min="5" max="5" width="20.33203125" customWidth="1"/>
+    <col min="6" max="6" width="12.5546875" customWidth="1"/>
+    <col min="7" max="7" width="26.5546875" customWidth="1"/>
+    <col min="8" max="8" width="21.88671875" customWidth="1"/>
+    <col min="9" max="9" width="21" customWidth="1"/>
+    <col min="10" max="10" width="21.33203125" customWidth="1"/>
+    <col min="11" max="26" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="35.25" customHeight="1">
-      <c r="A1" s="39" t="s">
+    <row r="1" spans="1:13" ht="35.25" customHeight="1">
+      <c r="A1" s="44" t="s">
         <v>149</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="40" t="s">
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="30" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:13" ht="42">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="41" t="s">
+      <c r="F3" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="42" t="s">
+      <c r="L3" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="M3" s="42" t="s">
+      <c r="M3" s="32" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="43" t="s">
+    <row r="4" spans="1:13" ht="21">
+      <c r="A4" s="33" t="s">
         <v>154</v>
       </c>
-      <c r="B4" s="44">
-        <v>1.0</v>
-      </c>
-      <c r="C4" s="44">
-        <v>2.0</v>
-      </c>
-      <c r="D4" s="44">
-        <f t="shared" ref="D4:D63" si="1">2^(K4)-2</f>
-        <v>2</v>
-      </c>
-      <c r="E4" s="45" t="s">
+      <c r="B4" s="34">
+        <v>1</v>
+      </c>
+      <c r="C4" s="34">
+        <v>2</v>
+      </c>
+      <c r="D4" s="34">
+        <f t="shared" ref="D4:D63" si="0">2^(K4)-2</f>
+        <v>2</v>
+      </c>
+      <c r="E4" s="35" t="s">
         <v>149</v>
       </c>
-      <c r="F4" s="46" t="s">
+      <c r="F4" s="34" t="s">
         <v>155</v>
       </c>
-      <c r="G4" s="47" t="s">
+      <c r="G4" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="45" t="s">
+      <c r="H4" s="35" t="s">
         <v>156</v>
       </c>
-      <c r="I4" s="45" t="s">
+      <c r="I4" s="35" t="s">
         <v>157</v>
       </c>
-      <c r="J4" s="45" t="s">
+      <c r="J4" s="35" t="s">
         <v>158</v>
       </c>
-      <c r="K4" s="48">
-        <v>2.0</v>
-      </c>
-      <c r="L4" s="16">
-        <v>4.0</v>
-      </c>
-      <c r="M4" s="16">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="43" t="s">
+      <c r="K4" s="35">
+        <v>2</v>
+      </c>
+      <c r="L4" s="11">
+        <v>4</v>
+      </c>
+      <c r="M4" s="11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="21">
+      <c r="A5" s="33" t="s">
         <v>159</v>
       </c>
-      <c r="B5" s="44">
-        <v>2.0</v>
-      </c>
-      <c r="C5" s="44">
-        <v>2.0</v>
-      </c>
-      <c r="D5" s="44">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="E5" s="45" t="s">
+      <c r="B5" s="34">
+        <v>2</v>
+      </c>
+      <c r="C5" s="34">
+        <v>2</v>
+      </c>
+      <c r="D5" s="34">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E5" s="35" t="s">
         <v>160</v>
       </c>
-      <c r="F5" s="44" t="s">
+      <c r="F5" s="34" t="s">
         <v>155</v>
       </c>
-      <c r="G5" s="47">
-        <v>2.55255255252E11</v>
-      </c>
-      <c r="H5" s="45" t="s">
+      <c r="G5" s="36">
+        <v>255255255252</v>
+      </c>
+      <c r="H5" s="35" t="s">
         <v>161</v>
       </c>
-      <c r="I5" s="45" t="s">
+      <c r="I5" s="35" t="s">
         <v>162</v>
       </c>
-      <c r="J5" s="45" t="s">
+      <c r="J5" s="35" t="s">
         <v>163</v>
       </c>
-      <c r="K5" s="48">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="43" t="s">
+      <c r="K5" s="35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="21">
+      <c r="A6" s="33" t="s">
         <v>164</v>
       </c>
-      <c r="B6" s="44">
-        <v>3.0</v>
-      </c>
-      <c r="C6" s="44">
-        <v>2.0</v>
-      </c>
-      <c r="D6" s="44">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="E6" s="45" t="s">
+      <c r="B6" s="34">
+        <v>3</v>
+      </c>
+      <c r="C6" s="34">
+        <v>2</v>
+      </c>
+      <c r="D6" s="34">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E6" s="35" t="s">
         <v>165</v>
       </c>
-      <c r="F6" s="44" t="s">
+      <c r="F6" s="34" t="s">
         <v>155</v>
       </c>
-      <c r="G6" s="47">
-        <v>2.55255255252E11</v>
-      </c>
-      <c r="H6" s="45" t="s">
+      <c r="G6" s="36">
+        <v>255255255252</v>
+      </c>
+      <c r="H6" s="35" t="s">
         <v>166</v>
       </c>
-      <c r="I6" s="45" t="s">
+      <c r="I6" s="35" t="s">
         <v>167</v>
       </c>
-      <c r="J6" s="45" t="s">
+      <c r="J6" s="35" t="s">
         <v>168</v>
       </c>
-      <c r="K6" s="48">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="43" t="s">
+      <c r="K6" s="35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="21">
+      <c r="A7" s="33" t="s">
         <v>169</v>
       </c>
-      <c r="B7" s="44">
-        <v>4.0</v>
-      </c>
-      <c r="C7" s="44">
-        <v>2.0</v>
-      </c>
-      <c r="D7" s="44">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="E7" s="45" t="s">
+      <c r="B7" s="34">
+        <v>4</v>
+      </c>
+      <c r="C7" s="34">
+        <v>2</v>
+      </c>
+      <c r="D7" s="34">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E7" s="35" t="s">
         <v>170</v>
       </c>
-      <c r="F7" s="44" t="s">
+      <c r="F7" s="34" t="s">
         <v>155</v>
       </c>
-      <c r="G7" s="47">
-        <v>2.55255255252E11</v>
-      </c>
-      <c r="H7" s="45" t="s">
+      <c r="G7" s="36">
+        <v>255255255252</v>
+      </c>
+      <c r="H7" s="35" t="s">
         <v>171</v>
       </c>
-      <c r="I7" s="45" t="s">
+      <c r="I7" s="35" t="s">
         <v>172</v>
       </c>
-      <c r="J7" s="45" t="s">
+      <c r="J7" s="35" t="s">
         <v>173</v>
       </c>
-      <c r="K7" s="48">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="43" t="s">
+      <c r="K7" s="35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="21">
+      <c r="A8" s="33" t="s">
         <v>174</v>
       </c>
-      <c r="B8" s="44">
-        <v>5.0</v>
-      </c>
-      <c r="C8" s="44">
-        <v>2.0</v>
-      </c>
-      <c r="D8" s="44">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="E8" s="45" t="s">
+      <c r="B8" s="34">
+        <v>5</v>
+      </c>
+      <c r="C8" s="34">
+        <v>2</v>
+      </c>
+      <c r="D8" s="34">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E8" s="35" t="s">
         <v>175</v>
       </c>
-      <c r="F8" s="44" t="s">
+      <c r="F8" s="34" t="s">
         <v>155</v>
       </c>
-      <c r="G8" s="47">
-        <v>2.55255255252E11</v>
-      </c>
-      <c r="H8" s="45" t="s">
+      <c r="G8" s="36">
+        <v>255255255252</v>
+      </c>
+      <c r="H8" s="35" t="s">
         <v>176</v>
       </c>
-      <c r="I8" s="45" t="s">
+      <c r="I8" s="35" t="s">
         <v>177</v>
       </c>
-      <c r="J8" s="45" t="s">
+      <c r="J8" s="35" t="s">
         <v>178</v>
       </c>
-      <c r="K8" s="48">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="43" t="s">
+      <c r="K8" s="35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="21">
+      <c r="A9" s="33" t="s">
         <v>179</v>
       </c>
-      <c r="B9" s="44">
-        <v>6.0</v>
-      </c>
-      <c r="C9" s="44">
-        <v>2.0</v>
-      </c>
-      <c r="D9" s="44">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="E9" s="45" t="s">
+      <c r="B9" s="34">
+        <v>6</v>
+      </c>
+      <c r="C9" s="34">
+        <v>2</v>
+      </c>
+      <c r="D9" s="34">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E9" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="F9" s="44" t="s">
+      <c r="F9" s="34" t="s">
         <v>155</v>
       </c>
-      <c r="G9" s="47">
-        <v>2.55255255252E11</v>
-      </c>
-      <c r="H9" s="45" t="s">
+      <c r="G9" s="36">
+        <v>255255255252</v>
+      </c>
+      <c r="H9" s="35" t="s">
         <v>181</v>
       </c>
-      <c r="I9" s="45" t="s">
+      <c r="I9" s="35" t="s">
         <v>182</v>
       </c>
-      <c r="J9" s="45" t="s">
+      <c r="J9" s="35" t="s">
         <v>183</v>
       </c>
-      <c r="K9" s="48">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="43" t="s">
+      <c r="K9" s="35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="21">
+      <c r="A10" s="33" t="s">
         <v>184</v>
       </c>
-      <c r="B10" s="44">
-        <v>7.0</v>
-      </c>
-      <c r="C10" s="44">
-        <v>2.0</v>
-      </c>
-      <c r="D10" s="44">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="E10" s="45" t="s">
+      <c r="B10" s="34">
+        <v>7</v>
+      </c>
+      <c r="C10" s="34">
+        <v>2</v>
+      </c>
+      <c r="D10" s="34">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E10" s="35" t="s">
         <v>185</v>
       </c>
-      <c r="F10" s="44" t="s">
+      <c r="F10" s="34" t="s">
         <v>155</v>
       </c>
-      <c r="G10" s="47">
-        <v>2.55255255252E11</v>
-      </c>
-      <c r="H10" s="45" t="s">
+      <c r="G10" s="36">
+        <v>255255255252</v>
+      </c>
+      <c r="H10" s="35" t="s">
         <v>186</v>
       </c>
-      <c r="I10" s="45" t="s">
+      <c r="I10" s="35" t="s">
         <v>187</v>
       </c>
-      <c r="J10" s="45" t="s">
+      <c r="J10" s="35" t="s">
         <v>188</v>
       </c>
-      <c r="K10" s="48">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="43" t="s">
+      <c r="K10" s="35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="21">
+      <c r="A11" s="33" t="s">
         <v>189</v>
       </c>
-      <c r="B11" s="44">
-        <v>8.0</v>
-      </c>
-      <c r="C11" s="44">
-        <v>2.0</v>
-      </c>
-      <c r="D11" s="44">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="E11" s="45" t="s">
+      <c r="B11" s="34">
+        <v>8</v>
+      </c>
+      <c r="C11" s="34">
+        <v>2</v>
+      </c>
+      <c r="D11" s="34">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E11" s="35" t="s">
         <v>190</v>
       </c>
-      <c r="F11" s="44" t="s">
+      <c r="F11" s="34" t="s">
         <v>155</v>
       </c>
-      <c r="G11" s="47">
-        <v>2.55255255252E11</v>
-      </c>
-      <c r="H11" s="45" t="s">
+      <c r="G11" s="36">
+        <v>255255255252</v>
+      </c>
+      <c r="H11" s="35" t="s">
         <v>191</v>
       </c>
-      <c r="I11" s="45" t="s">
+      <c r="I11" s="35" t="s">
         <v>192</v>
       </c>
-      <c r="J11" s="45" t="s">
+      <c r="J11" s="35" t="s">
         <v>193</v>
       </c>
-      <c r="K11" s="48">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="43" t="s">
+      <c r="K11" s="35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="21">
+      <c r="A12" s="33" t="s">
         <v>194</v>
       </c>
-      <c r="B12" s="44">
-        <v>9.0</v>
-      </c>
-      <c r="C12" s="44">
-        <v>2.0</v>
-      </c>
-      <c r="D12" s="44">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="E12" s="45" t="s">
+      <c r="B12" s="34">
+        <v>9</v>
+      </c>
+      <c r="C12" s="34">
+        <v>2</v>
+      </c>
+      <c r="D12" s="34">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E12" s="35" t="s">
         <v>195</v>
       </c>
-      <c r="F12" s="44" t="s">
+      <c r="F12" s="34" t="s">
         <v>155</v>
       </c>
-      <c r="G12" s="47">
-        <v>2.55255255252E11</v>
-      </c>
-      <c r="H12" s="45" t="s">
+      <c r="G12" s="36">
+        <v>255255255252</v>
+      </c>
+      <c r="H12" s="35" t="s">
         <v>196</v>
       </c>
-      <c r="I12" s="45" t="s">
+      <c r="I12" s="35" t="s">
         <v>197</v>
       </c>
-      <c r="J12" s="45" t="s">
+      <c r="J12" s="35" t="s">
         <v>198</v>
       </c>
-      <c r="K12" s="48">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="43" t="s">
+      <c r="K12" s="35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="21">
+      <c r="A13" s="33" t="s">
         <v>199</v>
       </c>
-      <c r="B13" s="44">
-        <v>10.0</v>
-      </c>
-      <c r="C13" s="44">
-        <v>2.0</v>
-      </c>
-      <c r="D13" s="44">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="E13" s="45" t="s">
+      <c r="B13" s="34">
+        <v>10</v>
+      </c>
+      <c r="C13" s="34">
+        <v>2</v>
+      </c>
+      <c r="D13" s="34">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E13" s="35" t="s">
         <v>200</v>
       </c>
-      <c r="F13" s="44" t="s">
+      <c r="F13" s="34" t="s">
         <v>155</v>
       </c>
-      <c r="G13" s="47">
-        <v>2.55255255252E11</v>
-      </c>
-      <c r="H13" s="45" t="s">
+      <c r="G13" s="36">
+        <v>255255255252</v>
+      </c>
+      <c r="H13" s="35" t="s">
         <v>201</v>
       </c>
-      <c r="I13" s="45" t="s">
+      <c r="I13" s="35" t="s">
         <v>202</v>
       </c>
-      <c r="J13" s="45" t="s">
+      <c r="J13" s="35" t="s">
         <v>203</v>
       </c>
-      <c r="K13" s="48">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="43" t="s">
+      <c r="K13" s="35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="21">
+      <c r="A14" s="33" t="s">
         <v>204</v>
       </c>
-      <c r="B14" s="44">
-        <v>11.0</v>
-      </c>
-      <c r="C14" s="44">
-        <v>2.0</v>
-      </c>
-      <c r="D14" s="44">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="E14" s="45" t="s">
+      <c r="B14" s="34">
+        <v>11</v>
+      </c>
+      <c r="C14" s="34">
+        <v>2</v>
+      </c>
+      <c r="D14" s="34">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E14" s="35" t="s">
         <v>205</v>
       </c>
-      <c r="F14" s="44" t="s">
+      <c r="F14" s="34" t="s">
         <v>155</v>
       </c>
-      <c r="G14" s="47">
-        <v>2.55255255252E11</v>
-      </c>
-      <c r="H14" s="45" t="s">
+      <c r="G14" s="36">
+        <v>255255255252</v>
+      </c>
+      <c r="H14" s="35" t="s">
         <v>206</v>
       </c>
-      <c r="I14" s="45" t="s">
+      <c r="I14" s="35" t="s">
         <v>207</v>
       </c>
-      <c r="J14" s="45" t="s">
+      <c r="J14" s="35" t="s">
         <v>208</v>
       </c>
-      <c r="K14" s="48">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="43" t="s">
+      <c r="K14" s="35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="21">
+      <c r="A15" s="33" t="s">
         <v>209</v>
       </c>
-      <c r="B15" s="44">
-        <v>12.0</v>
-      </c>
-      <c r="C15" s="44">
-        <v>2.0</v>
-      </c>
-      <c r="D15" s="44">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="E15" s="45" t="s">
+      <c r="B15" s="34">
+        <v>12</v>
+      </c>
+      <c r="C15" s="34">
+        <v>2</v>
+      </c>
+      <c r="D15" s="34">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E15" s="35" t="s">
         <v>210</v>
       </c>
-      <c r="F15" s="44" t="s">
+      <c r="F15" s="34" t="s">
         <v>155</v>
       </c>
-      <c r="G15" s="47">
-        <v>2.55255255252E11</v>
-      </c>
-      <c r="H15" s="45" t="s">
+      <c r="G15" s="36">
+        <v>255255255252</v>
+      </c>
+      <c r="H15" s="35" t="s">
         <v>211</v>
       </c>
-      <c r="I15" s="45" t="s">
+      <c r="I15" s="35" t="s">
         <v>212</v>
       </c>
-      <c r="J15" s="45" t="s">
+      <c r="J15" s="35" t="s">
         <v>213</v>
       </c>
-      <c r="K15" s="48">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="43" t="s">
+      <c r="K15" s="35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="21">
+      <c r="A16" s="33" t="s">
         <v>214</v>
       </c>
-      <c r="B16" s="44">
-        <v>13.0</v>
-      </c>
-      <c r="C16" s="44">
-        <v>2.0</v>
-      </c>
-      <c r="D16" s="44">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="E16" s="45" t="s">
+      <c r="B16" s="34">
+        <v>13</v>
+      </c>
+      <c r="C16" s="34">
+        <v>2</v>
+      </c>
+      <c r="D16" s="34">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E16" s="35" t="s">
         <v>215</v>
       </c>
-      <c r="F16" s="44" t="s">
+      <c r="F16" s="34" t="s">
         <v>155</v>
       </c>
-      <c r="G16" s="47">
-        <v>2.55255255252E11</v>
-      </c>
-      <c r="H16" s="45" t="s">
+      <c r="G16" s="36">
+        <v>255255255252</v>
+      </c>
+      <c r="H16" s="35" t="s">
         <v>216</v>
       </c>
-      <c r="I16" s="45" t="s">
+      <c r="I16" s="35" t="s">
         <v>217</v>
       </c>
-      <c r="J16" s="45" t="s">
+      <c r="J16" s="35" t="s">
         <v>218</v>
       </c>
-      <c r="K16" s="48">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="43" t="s">
+      <c r="K16" s="35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="21">
+      <c r="A17" s="33" t="s">
         <v>219</v>
       </c>
-      <c r="B17" s="44">
-        <v>14.0</v>
-      </c>
-      <c r="C17" s="44">
-        <v>2.0</v>
-      </c>
-      <c r="D17" s="44">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="E17" s="45" t="s">
+      <c r="B17" s="34">
+        <v>14</v>
+      </c>
+      <c r="C17" s="34">
+        <v>2</v>
+      </c>
+      <c r="D17" s="34">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E17" s="35" t="s">
         <v>220</v>
       </c>
-      <c r="F17" s="44" t="s">
+      <c r="F17" s="34" t="s">
         <v>155</v>
       </c>
-      <c r="G17" s="47">
-        <v>2.55255255252E11</v>
-      </c>
-      <c r="H17" s="45" t="s">
+      <c r="G17" s="36">
+        <v>255255255252</v>
+      </c>
+      <c r="H17" s="35" t="s">
         <v>221</v>
       </c>
-      <c r="I17" s="45" t="s">
+      <c r="I17" s="35" t="s">
         <v>222</v>
       </c>
-      <c r="J17" s="45" t="s">
+      <c r="J17" s="35" t="s">
         <v>223</v>
       </c>
-      <c r="K17" s="48">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="43" t="s">
+      <c r="K17" s="35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="21">
+      <c r="A18" s="33" t="s">
         <v>224</v>
       </c>
-      <c r="B18" s="44">
-        <v>15.0</v>
-      </c>
-      <c r="C18" s="44">
-        <v>2.0</v>
-      </c>
-      <c r="D18" s="44">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="E18" s="45" t="s">
+      <c r="B18" s="34">
+        <v>15</v>
+      </c>
+      <c r="C18" s="34">
+        <v>2</v>
+      </c>
+      <c r="D18" s="34">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E18" s="35" t="s">
         <v>225</v>
       </c>
-      <c r="F18" s="44" t="s">
+      <c r="F18" s="34" t="s">
         <v>155</v>
       </c>
-      <c r="G18" s="47">
-        <v>2.55255255252E11</v>
-      </c>
-      <c r="H18" s="45" t="s">
+      <c r="G18" s="36">
+        <v>255255255252</v>
+      </c>
+      <c r="H18" s="35" t="s">
         <v>226</v>
       </c>
-      <c r="I18" s="45" t="s">
+      <c r="I18" s="35" t="s">
         <v>227</v>
       </c>
-      <c r="J18" s="45" t="s">
+      <c r="J18" s="35" t="s">
         <v>228</v>
       </c>
-      <c r="K18" s="48">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="43" t="s">
+      <c r="K18" s="35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="21">
+      <c r="A19" s="33" t="s">
         <v>229</v>
       </c>
-      <c r="B19" s="44">
-        <v>16.0</v>
-      </c>
-      <c r="C19" s="44">
-        <v>2.0</v>
-      </c>
-      <c r="D19" s="44">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="E19" s="45" t="s">
+      <c r="B19" s="34">
+        <v>16</v>
+      </c>
+      <c r="C19" s="34">
+        <v>2</v>
+      </c>
+      <c r="D19" s="34">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E19" s="35" t="s">
         <v>230</v>
       </c>
-      <c r="F19" s="44" t="s">
+      <c r="F19" s="34" t="s">
         <v>155</v>
       </c>
-      <c r="G19" s="47">
-        <v>2.55255255252E11</v>
-      </c>
-      <c r="H19" s="45" t="s">
+      <c r="G19" s="36">
+        <v>255255255252</v>
+      </c>
+      <c r="H19" s="35" t="s">
         <v>231</v>
       </c>
-      <c r="I19" s="45" t="s">
+      <c r="I19" s="35" t="s">
         <v>232</v>
       </c>
-      <c r="J19" s="45" t="s">
+      <c r="J19" s="35" t="s">
         <v>233</v>
       </c>
-      <c r="K19" s="48">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="43" t="s">
+      <c r="K19" s="35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="21">
+      <c r="A20" s="33" t="s">
         <v>234</v>
       </c>
-      <c r="B20" s="44">
-        <v>17.0</v>
-      </c>
-      <c r="C20" s="44">
-        <v>2.0</v>
-      </c>
-      <c r="D20" s="44">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="E20" s="45" t="s">
+      <c r="B20" s="34">
+        <v>17</v>
+      </c>
+      <c r="C20" s="34">
+        <v>2</v>
+      </c>
+      <c r="D20" s="34">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E20" s="35" t="s">
         <v>235</v>
       </c>
-      <c r="F20" s="44" t="s">
+      <c r="F20" s="34" t="s">
         <v>155</v>
       </c>
-      <c r="G20" s="47">
-        <v>2.55255255252E11</v>
-      </c>
-      <c r="H20" s="45" t="s">
+      <c r="G20" s="36">
+        <v>255255255252</v>
+      </c>
+      <c r="H20" s="35" t="s">
         <v>236</v>
       </c>
-      <c r="I20" s="45" t="s">
+      <c r="I20" s="35" t="s">
         <v>237</v>
       </c>
-      <c r="J20" s="45" t="s">
+      <c r="J20" s="35" t="s">
         <v>238</v>
       </c>
-      <c r="K20" s="48">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="43" t="s">
+      <c r="K20" s="35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A21" s="33" t="s">
         <v>239</v>
       </c>
-      <c r="B21" s="44">
-        <v>18.0</v>
-      </c>
-      <c r="C21" s="44">
-        <v>2.0</v>
-      </c>
-      <c r="D21" s="44">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="E21" s="45" t="s">
+      <c r="B21" s="34">
+        <v>18</v>
+      </c>
+      <c r="C21" s="34">
+        <v>2</v>
+      </c>
+      <c r="D21" s="34">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E21" s="35" t="s">
         <v>240</v>
       </c>
-      <c r="F21" s="44" t="s">
+      <c r="F21" s="34" t="s">
         <v>155</v>
       </c>
-      <c r="G21" s="47">
-        <v>2.55255255252E11</v>
-      </c>
-      <c r="H21" s="45" t="s">
+      <c r="G21" s="36">
+        <v>255255255252</v>
+      </c>
+      <c r="H21" s="35" t="s">
         <v>241</v>
       </c>
-      <c r="I21" s="45" t="s">
+      <c r="I21" s="35" t="s">
         <v>242</v>
       </c>
-      <c r="J21" s="45" t="s">
+      <c r="J21" s="35" t="s">
         <v>243</v>
       </c>
-      <c r="K21" s="48">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="43" t="s">
+      <c r="K21" s="35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A22" s="33" t="s">
         <v>244</v>
       </c>
-      <c r="B22" s="44">
-        <v>19.0</v>
-      </c>
-      <c r="C22" s="44">
-        <v>2.0</v>
-      </c>
-      <c r="D22" s="44">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="E22" s="45" t="s">
+      <c r="B22" s="34">
+        <v>19</v>
+      </c>
+      <c r="C22" s="34">
+        <v>2</v>
+      </c>
+      <c r="D22" s="34">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E22" s="35" t="s">
         <v>245</v>
       </c>
-      <c r="F22" s="44" t="s">
+      <c r="F22" s="34" t="s">
         <v>155</v>
       </c>
-      <c r="G22" s="47">
-        <v>2.55255255252E11</v>
-      </c>
-      <c r="H22" s="45" t="s">
+      <c r="G22" s="36">
+        <v>255255255252</v>
+      </c>
+      <c r="H22" s="35" t="s">
         <v>246</v>
       </c>
-      <c r="I22" s="45" t="s">
+      <c r="I22" s="35" t="s">
         <v>247</v>
       </c>
-      <c r="J22" s="45" t="s">
+      <c r="J22" s="35" t="s">
         <v>248</v>
       </c>
-      <c r="K22" s="48">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="43" t="s">
+      <c r="K22" s="35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A23" s="33" t="s">
         <v>249</v>
       </c>
-      <c r="B23" s="44">
-        <v>20.0</v>
-      </c>
-      <c r="C23" s="44">
-        <v>2.0</v>
-      </c>
-      <c r="D23" s="44">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="E23" s="45" t="s">
+      <c r="B23" s="34">
+        <v>20</v>
+      </c>
+      <c r="C23" s="34">
+        <v>2</v>
+      </c>
+      <c r="D23" s="34">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E23" s="35" t="s">
         <v>250</v>
       </c>
-      <c r="F23" s="44" t="s">
+      <c r="F23" s="34" t="s">
         <v>155</v>
       </c>
-      <c r="G23" s="47">
-        <v>2.55255255252E11</v>
-      </c>
-      <c r="H23" s="45" t="s">
+      <c r="G23" s="36">
+        <v>255255255252</v>
+      </c>
+      <c r="H23" s="35" t="s">
         <v>251</v>
       </c>
-      <c r="I23" s="45" t="s">
+      <c r="I23" s="35" t="s">
         <v>252</v>
       </c>
-      <c r="J23" s="45" t="s">
+      <c r="J23" s="35" t="s">
         <v>253</v>
       </c>
-      <c r="K23" s="48">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="43" t="s">
+      <c r="K23" s="35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A24" s="33" t="s">
         <v>254</v>
       </c>
-      <c r="B24" s="44">
-        <v>21.0</v>
-      </c>
-      <c r="C24" s="44">
-        <v>2.0</v>
-      </c>
-      <c r="D24" s="44">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="E24" s="45" t="s">
+      <c r="B24" s="34">
+        <v>21</v>
+      </c>
+      <c r="C24" s="34">
+        <v>2</v>
+      </c>
+      <c r="D24" s="34">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E24" s="35" t="s">
         <v>255</v>
       </c>
-      <c r="F24" s="44" t="s">
+      <c r="F24" s="34" t="s">
         <v>155</v>
       </c>
-      <c r="G24" s="47">
-        <v>2.55255255252E11</v>
-      </c>
-      <c r="H24" s="45" t="s">
+      <c r="G24" s="36">
+        <v>255255255252</v>
+      </c>
+      <c r="H24" s="35" t="s">
         <v>256</v>
       </c>
-      <c r="I24" s="45" t="s">
+      <c r="I24" s="35" t="s">
         <v>257</v>
       </c>
-      <c r="J24" s="45" t="s">
+      <c r="J24" s="35" t="s">
         <v>258</v>
       </c>
-      <c r="K24" s="48">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="43" t="s">
+      <c r="K24" s="35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A25" s="33" t="s">
         <v>259</v>
       </c>
-      <c r="B25" s="44">
-        <v>22.0</v>
-      </c>
-      <c r="C25" s="44">
-        <v>2.0</v>
-      </c>
-      <c r="D25" s="44">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="E25" s="45" t="s">
+      <c r="B25" s="34">
+        <v>22</v>
+      </c>
+      <c r="C25" s="34">
+        <v>2</v>
+      </c>
+      <c r="D25" s="34">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E25" s="35" t="s">
         <v>260</v>
       </c>
-      <c r="F25" s="44" t="s">
+      <c r="F25" s="34" t="s">
         <v>155</v>
       </c>
-      <c r="G25" s="47">
-        <v>2.55255255252E11</v>
-      </c>
-      <c r="H25" s="45" t="s">
+      <c r="G25" s="36">
+        <v>255255255252</v>
+      </c>
+      <c r="H25" s="35" t="s">
         <v>261</v>
       </c>
-      <c r="I25" s="45" t="s">
+      <c r="I25" s="35" t="s">
         <v>262</v>
       </c>
-      <c r="J25" s="45" t="s">
+      <c r="J25" s="35" t="s">
         <v>263</v>
       </c>
-      <c r="K25" s="48">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="43" t="s">
+      <c r="K25" s="35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A26" s="33" t="s">
         <v>264</v>
       </c>
-      <c r="B26" s="44">
-        <v>23.0</v>
-      </c>
-      <c r="C26" s="44">
-        <v>2.0</v>
-      </c>
-      <c r="D26" s="44">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="E26" s="45" t="s">
+      <c r="B26" s="34">
+        <v>23</v>
+      </c>
+      <c r="C26" s="34">
+        <v>2</v>
+      </c>
+      <c r="D26" s="34">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E26" s="35" t="s">
         <v>265</v>
       </c>
-      <c r="F26" s="44" t="s">
+      <c r="F26" s="34" t="s">
         <v>155</v>
       </c>
-      <c r="G26" s="47">
-        <v>2.55255255252E11</v>
-      </c>
-      <c r="H26" s="45" t="s">
+      <c r="G26" s="36">
+        <v>255255255252</v>
+      </c>
+      <c r="H26" s="35" t="s">
         <v>266</v>
       </c>
-      <c r="I26" s="45" t="s">
+      <c r="I26" s="35" t="s">
         <v>267</v>
       </c>
-      <c r="J26" s="45" t="s">
+      <c r="J26" s="35" t="s">
         <v>268</v>
       </c>
-      <c r="K26" s="48">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="43" t="s">
+      <c r="K26" s="35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A27" s="33" t="s">
         <v>269</v>
       </c>
-      <c r="B27" s="44">
-        <v>24.0</v>
-      </c>
-      <c r="C27" s="44">
-        <v>2.0</v>
-      </c>
-      <c r="D27" s="44">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="E27" s="45" t="s">
+      <c r="B27" s="34">
+        <v>24</v>
+      </c>
+      <c r="C27" s="34">
+        <v>2</v>
+      </c>
+      <c r="D27" s="34">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E27" s="35" t="s">
         <v>270</v>
       </c>
-      <c r="F27" s="44" t="s">
+      <c r="F27" s="34" t="s">
         <v>155</v>
       </c>
-      <c r="G27" s="47">
-        <v>2.55255255252E11</v>
-      </c>
-      <c r="H27" s="45" t="s">
+      <c r="G27" s="36">
+        <v>255255255252</v>
+      </c>
+      <c r="H27" s="35" t="s">
         <v>271</v>
       </c>
-      <c r="I27" s="45" t="s">
+      <c r="I27" s="35" t="s">
         <v>272</v>
       </c>
-      <c r="J27" s="45" t="s">
+      <c r="J27" s="35" t="s">
         <v>273</v>
       </c>
-      <c r="K27" s="48">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="43" t="s">
+      <c r="K27" s="35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A28" s="33" t="s">
         <v>274</v>
       </c>
-      <c r="B28" s="44">
-        <v>25.0</v>
-      </c>
-      <c r="C28" s="44">
-        <v>2.0</v>
-      </c>
-      <c r="D28" s="44">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="E28" s="45" t="s">
+      <c r="B28" s="34">
+        <v>25</v>
+      </c>
+      <c r="C28" s="34">
+        <v>2</v>
+      </c>
+      <c r="D28" s="34">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E28" s="35" t="s">
         <v>275</v>
       </c>
-      <c r="F28" s="44" t="s">
+      <c r="F28" s="34" t="s">
         <v>155</v>
       </c>
-      <c r="G28" s="47">
-        <v>2.55255255252E11</v>
-      </c>
-      <c r="H28" s="45" t="s">
+      <c r="G28" s="36">
+        <v>255255255252</v>
+      </c>
+      <c r="H28" s="35" t="s">
         <v>276</v>
       </c>
-      <c r="I28" s="45" t="s">
+      <c r="I28" s="35" t="s">
         <v>277</v>
       </c>
-      <c r="J28" s="45" t="s">
+      <c r="J28" s="35" t="s">
         <v>278</v>
       </c>
-      <c r="K28" s="48">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="43" t="s">
+      <c r="K28" s="35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A29" s="33" t="s">
         <v>279</v>
       </c>
-      <c r="B29" s="44">
-        <v>26.0</v>
-      </c>
-      <c r="C29" s="44">
-        <v>2.0</v>
-      </c>
-      <c r="D29" s="44">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="E29" s="45" t="s">
+      <c r="B29" s="34">
+        <v>26</v>
+      </c>
+      <c r="C29" s="34">
+        <v>2</v>
+      </c>
+      <c r="D29" s="34">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E29" s="35" t="s">
         <v>280</v>
       </c>
-      <c r="F29" s="44" t="s">
+      <c r="F29" s="34" t="s">
         <v>155</v>
       </c>
-      <c r="G29" s="47">
-        <v>2.55255255252E11</v>
-      </c>
-      <c r="H29" s="45" t="s">
+      <c r="G29" s="36">
+        <v>255255255252</v>
+      </c>
+      <c r="H29" s="35" t="s">
         <v>281</v>
       </c>
-      <c r="I29" s="45" t="s">
+      <c r="I29" s="35" t="s">
         <v>282</v>
       </c>
-      <c r="J29" s="45" t="s">
+      <c r="J29" s="35" t="s">
         <v>283</v>
       </c>
-      <c r="K29" s="48">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="43" t="s">
+      <c r="K29" s="35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A30" s="33" t="s">
         <v>284</v>
       </c>
-      <c r="B30" s="44">
-        <v>27.0</v>
-      </c>
-      <c r="C30" s="44">
-        <v>2.0</v>
-      </c>
-      <c r="D30" s="44">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="E30" s="45" t="s">
+      <c r="B30" s="34">
+        <v>27</v>
+      </c>
+      <c r="C30" s="34">
+        <v>2</v>
+      </c>
+      <c r="D30" s="34">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E30" s="35" t="s">
         <v>285</v>
       </c>
-      <c r="F30" s="44" t="s">
+      <c r="F30" s="34" t="s">
         <v>155</v>
       </c>
-      <c r="G30" s="47">
-        <v>2.55255255252E11</v>
-      </c>
-      <c r="H30" s="45" t="s">
+      <c r="G30" s="36">
+        <v>255255255252</v>
+      </c>
+      <c r="H30" s="35" t="s">
         <v>286</v>
       </c>
-      <c r="I30" s="45" t="s">
+      <c r="I30" s="35" t="s">
         <v>287</v>
       </c>
-      <c r="J30" s="45" t="s">
+      <c r="J30" s="35" t="s">
         <v>288</v>
       </c>
-      <c r="K30" s="48">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="43" t="s">
+      <c r="K30" s="35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A31" s="33" t="s">
         <v>289</v>
       </c>
-      <c r="B31" s="44">
-        <v>28.0</v>
-      </c>
-      <c r="C31" s="44">
-        <v>2.0</v>
-      </c>
-      <c r="D31" s="44">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="E31" s="45" t="s">
+      <c r="B31" s="34">
+        <v>28</v>
+      </c>
+      <c r="C31" s="34">
+        <v>2</v>
+      </c>
+      <c r="D31" s="34">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E31" s="35" t="s">
         <v>290</v>
       </c>
-      <c r="F31" s="44" t="s">
+      <c r="F31" s="34" t="s">
         <v>155</v>
       </c>
-      <c r="G31" s="47">
-        <v>2.55255255252E11</v>
-      </c>
-      <c r="H31" s="45" t="s">
+      <c r="G31" s="36">
+        <v>255255255252</v>
+      </c>
+      <c r="H31" s="35" t="s">
         <v>291</v>
       </c>
-      <c r="I31" s="45" t="s">
+      <c r="I31" s="35" t="s">
         <v>292</v>
       </c>
-      <c r="J31" s="45" t="s">
+      <c r="J31" s="35" t="s">
         <v>293</v>
       </c>
-      <c r="K31" s="48">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="43" t="s">
+      <c r="K31" s="35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A32" s="33" t="s">
         <v>294</v>
       </c>
-      <c r="B32" s="44">
-        <v>29.0</v>
-      </c>
-      <c r="C32" s="44">
-        <v>2.0</v>
-      </c>
-      <c r="D32" s="44">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="E32" s="45" t="s">
+      <c r="B32" s="34">
+        <v>29</v>
+      </c>
+      <c r="C32" s="34">
+        <v>2</v>
+      </c>
+      <c r="D32" s="34">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E32" s="35" t="s">
         <v>295</v>
       </c>
-      <c r="F32" s="44" t="s">
+      <c r="F32" s="34" t="s">
         <v>155</v>
       </c>
-      <c r="G32" s="47">
-        <v>2.55255255252E11</v>
-      </c>
-      <c r="H32" s="45" t="s">
+      <c r="G32" s="36">
+        <v>255255255252</v>
+      </c>
+      <c r="H32" s="35" t="s">
         <v>296</v>
       </c>
-      <c r="I32" s="45" t="s">
+      <c r="I32" s="35" t="s">
         <v>297</v>
       </c>
-      <c r="J32" s="45" t="s">
+      <c r="J32" s="35" t="s">
         <v>298</v>
       </c>
-      <c r="K32" s="48">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="43" t="s">
+      <c r="K32" s="35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A33" s="33" t="s">
         <v>299</v>
       </c>
-      <c r="B33" s="44">
-        <v>30.0</v>
-      </c>
-      <c r="C33" s="44">
-        <v>2.0</v>
-      </c>
-      <c r="D33" s="44">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="E33" s="45" t="s">
+      <c r="B33" s="34">
+        <v>30</v>
+      </c>
+      <c r="C33" s="34">
+        <v>2</v>
+      </c>
+      <c r="D33" s="34">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E33" s="35" t="s">
         <v>300</v>
       </c>
-      <c r="F33" s="44" t="s">
+      <c r="F33" s="34" t="s">
         <v>155</v>
       </c>
-      <c r="G33" s="47">
-        <v>2.55255255252E11</v>
-      </c>
-      <c r="H33" s="45" t="s">
+      <c r="G33" s="36">
+        <v>255255255252</v>
+      </c>
+      <c r="H33" s="35" t="s">
         <v>301</v>
       </c>
-      <c r="I33" s="45" t="s">
+      <c r="I33" s="35" t="s">
         <v>302</v>
       </c>
-      <c r="J33" s="45" t="s">
+      <c r="J33" s="35" t="s">
         <v>303</v>
       </c>
-      <c r="K33" s="48">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="43" t="s">
+      <c r="K33" s="35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A34" s="33" t="s">
         <v>304</v>
       </c>
-      <c r="B34" s="44">
-        <v>31.0</v>
-      </c>
-      <c r="C34" s="44">
-        <v>2.0</v>
-      </c>
-      <c r="D34" s="44">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="E34" s="45" t="s">
+      <c r="B34" s="34">
+        <v>31</v>
+      </c>
+      <c r="C34" s="34">
+        <v>2</v>
+      </c>
+      <c r="D34" s="34">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E34" s="35" t="s">
         <v>305</v>
       </c>
-      <c r="F34" s="44" t="s">
+      <c r="F34" s="34" t="s">
         <v>155</v>
       </c>
-      <c r="G34" s="47">
-        <v>2.55255255252E11</v>
-      </c>
-      <c r="H34" s="45" t="s">
+      <c r="G34" s="36">
+        <v>255255255252</v>
+      </c>
+      <c r="H34" s="35" t="s">
         <v>306</v>
       </c>
-      <c r="I34" s="45" t="s">
+      <c r="I34" s="35" t="s">
         <v>307</v>
       </c>
-      <c r="J34" s="45" t="s">
+      <c r="J34" s="35" t="s">
         <v>308</v>
       </c>
-      <c r="K34" s="48">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="43" t="s">
+      <c r="K34" s="35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A35" s="33" t="s">
         <v>309</v>
       </c>
-      <c r="B35" s="44">
-        <v>32.0</v>
-      </c>
-      <c r="C35" s="44">
-        <v>2.0</v>
-      </c>
-      <c r="D35" s="44">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="E35" s="45" t="s">
+      <c r="B35" s="34">
+        <v>32</v>
+      </c>
+      <c r="C35" s="34">
+        <v>2</v>
+      </c>
+      <c r="D35" s="34">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E35" s="35" t="s">
         <v>310</v>
       </c>
-      <c r="F35" s="44" t="s">
+      <c r="F35" s="34" t="s">
         <v>155</v>
       </c>
-      <c r="G35" s="47">
-        <v>2.55255255252E11</v>
-      </c>
-      <c r="H35" s="45" t="s">
+      <c r="G35" s="36">
+        <v>255255255252</v>
+      </c>
+      <c r="H35" s="35" t="s">
         <v>311</v>
       </c>
-      <c r="I35" s="45" t="s">
+      <c r="I35" s="35" t="s">
         <v>312</v>
       </c>
-      <c r="J35" s="45" t="s">
+      <c r="J35" s="35" t="s">
         <v>313</v>
       </c>
-      <c r="K35" s="48">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="43" t="s">
+      <c r="K35" s="35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A36" s="33" t="s">
         <v>314</v>
       </c>
-      <c r="B36" s="44">
-        <v>33.0</v>
-      </c>
-      <c r="C36" s="44">
-        <v>2.0</v>
-      </c>
-      <c r="D36" s="44">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="E36" s="45" t="s">
+      <c r="B36" s="34">
+        <v>33</v>
+      </c>
+      <c r="C36" s="34">
+        <v>2</v>
+      </c>
+      <c r="D36" s="34">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E36" s="35" t="s">
         <v>315</v>
       </c>
-      <c r="F36" s="44" t="s">
+      <c r="F36" s="34" t="s">
         <v>155</v>
       </c>
-      <c r="G36" s="47">
-        <v>2.55255255252E11</v>
-      </c>
-      <c r="H36" s="45" t="s">
+      <c r="G36" s="36">
+        <v>255255255252</v>
+      </c>
+      <c r="H36" s="35" t="s">
         <v>316</v>
       </c>
-      <c r="I36" s="45" t="s">
+      <c r="I36" s="35" t="s">
         <v>317</v>
       </c>
-      <c r="J36" s="45" t="s">
+      <c r="J36" s="35" t="s">
         <v>318</v>
       </c>
-      <c r="K36" s="48">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="43" t="s">
+      <c r="K36" s="35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A37" s="33" t="s">
         <v>319</v>
       </c>
-      <c r="B37" s="44">
-        <v>34.0</v>
-      </c>
-      <c r="C37" s="44">
-        <v>2.0</v>
-      </c>
-      <c r="D37" s="44">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="E37" s="45" t="s">
+      <c r="B37" s="34">
+        <v>34</v>
+      </c>
+      <c r="C37" s="34">
+        <v>2</v>
+      </c>
+      <c r="D37" s="34">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E37" s="35" t="s">
         <v>320</v>
       </c>
-      <c r="F37" s="44" t="s">
+      <c r="F37" s="34" t="s">
         <v>155</v>
       </c>
-      <c r="G37" s="47">
-        <v>2.55255255252E11</v>
-      </c>
-      <c r="H37" s="45" t="s">
+      <c r="G37" s="36">
+        <v>255255255252</v>
+      </c>
+      <c r="H37" s="35" t="s">
         <v>321</v>
       </c>
-      <c r="I37" s="45" t="s">
+      <c r="I37" s="35" t="s">
         <v>322</v>
       </c>
-      <c r="J37" s="45" t="s">
+      <c r="J37" s="35" t="s">
         <v>323</v>
       </c>
-      <c r="K37" s="48">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="43" t="s">
+      <c r="K37" s="35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A38" s="33" t="s">
         <v>324</v>
       </c>
-      <c r="B38" s="44">
-        <v>35.0</v>
-      </c>
-      <c r="C38" s="44">
-        <v>2.0</v>
-      </c>
-      <c r="D38" s="44">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="E38" s="45" t="s">
+      <c r="B38" s="34">
+        <v>35</v>
+      </c>
+      <c r="C38" s="34">
+        <v>2</v>
+      </c>
+      <c r="D38" s="34">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E38" s="35" t="s">
         <v>325</v>
       </c>
-      <c r="F38" s="44" t="s">
+      <c r="F38" s="34" t="s">
         <v>155</v>
       </c>
-      <c r="G38" s="47">
-        <v>2.55255255252E11</v>
-      </c>
-      <c r="H38" s="45" t="s">
+      <c r="G38" s="36">
+        <v>255255255252</v>
+      </c>
+      <c r="H38" s="35" t="s">
         <v>326</v>
       </c>
-      <c r="I38" s="45" t="s">
+      <c r="I38" s="35" t="s">
         <v>327</v>
       </c>
-      <c r="J38" s="45" t="s">
+      <c r="J38" s="35" t="s">
         <v>328</v>
       </c>
-      <c r="K38" s="48">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="43" t="s">
+      <c r="K38" s="35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A39" s="33" t="s">
         <v>329</v>
       </c>
-      <c r="B39" s="44">
-        <v>36.0</v>
-      </c>
-      <c r="C39" s="44">
-        <v>2.0</v>
-      </c>
-      <c r="D39" s="44">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="E39" s="45" t="s">
+      <c r="B39" s="34">
+        <v>36</v>
+      </c>
+      <c r="C39" s="34">
+        <v>2</v>
+      </c>
+      <c r="D39" s="34">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E39" s="35" t="s">
         <v>330</v>
       </c>
-      <c r="F39" s="44" t="s">
+      <c r="F39" s="34" t="s">
         <v>155</v>
       </c>
-      <c r="G39" s="47">
-        <v>2.55255255252E11</v>
-      </c>
-      <c r="H39" s="45" t="s">
+      <c r="G39" s="36">
+        <v>255255255252</v>
+      </c>
+      <c r="H39" s="35" t="s">
         <v>331</v>
       </c>
-      <c r="I39" s="45" t="s">
+      <c r="I39" s="35" t="s">
         <v>332</v>
       </c>
-      <c r="J39" s="45" t="s">
+      <c r="J39" s="35" t="s">
         <v>333</v>
       </c>
-      <c r="K39" s="48">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="43" t="s">
+      <c r="K39" s="35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A40" s="33" t="s">
         <v>334</v>
       </c>
-      <c r="B40" s="44">
-        <v>37.0</v>
-      </c>
-      <c r="C40" s="44">
-        <v>2.0</v>
-      </c>
-      <c r="D40" s="44">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="E40" s="45" t="s">
+      <c r="B40" s="34">
+        <v>37</v>
+      </c>
+      <c r="C40" s="34">
+        <v>2</v>
+      </c>
+      <c r="D40" s="34">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E40" s="35" t="s">
         <v>335</v>
       </c>
-      <c r="F40" s="44" t="s">
+      <c r="F40" s="34" t="s">
         <v>155</v>
       </c>
-      <c r="G40" s="47">
-        <v>2.55255255252E11</v>
-      </c>
-      <c r="H40" s="45" t="s">
+      <c r="G40" s="36">
+        <v>255255255252</v>
+      </c>
+      <c r="H40" s="35" t="s">
         <v>336</v>
       </c>
-      <c r="I40" s="45" t="s">
+      <c r="I40" s="35" t="s">
         <v>337</v>
       </c>
-      <c r="J40" s="45" t="s">
+      <c r="J40" s="35" t="s">
         <v>338</v>
       </c>
-      <c r="K40" s="48">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="43" t="s">
+      <c r="K40" s="35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A41" s="33" t="s">
         <v>339</v>
       </c>
-      <c r="B41" s="44">
-        <v>38.0</v>
-      </c>
-      <c r="C41" s="44">
-        <v>2.0</v>
-      </c>
-      <c r="D41" s="44">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="E41" s="45" t="s">
+      <c r="B41" s="34">
+        <v>38</v>
+      </c>
+      <c r="C41" s="34">
+        <v>2</v>
+      </c>
+      <c r="D41" s="34">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E41" s="35" t="s">
         <v>340</v>
       </c>
-      <c r="F41" s="44" t="s">
+      <c r="F41" s="34" t="s">
         <v>155</v>
       </c>
-      <c r="G41" s="47">
-        <v>2.55255255252E11</v>
-      </c>
-      <c r="H41" s="45" t="s">
+      <c r="G41" s="36">
+        <v>255255255252</v>
+      </c>
+      <c r="H41" s="35" t="s">
         <v>341</v>
       </c>
-      <c r="I41" s="45" t="s">
+      <c r="I41" s="35" t="s">
         <v>342</v>
       </c>
-      <c r="J41" s="45" t="s">
+      <c r="J41" s="35" t="s">
         <v>343</v>
       </c>
-      <c r="K41" s="48">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="43" t="s">
+      <c r="K41" s="35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A42" s="33" t="s">
         <v>344</v>
       </c>
-      <c r="B42" s="44">
-        <v>39.0</v>
-      </c>
-      <c r="C42" s="44">
-        <v>2.0</v>
-      </c>
-      <c r="D42" s="44">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="E42" s="45" t="s">
+      <c r="B42" s="34">
+        <v>39</v>
+      </c>
+      <c r="C42" s="34">
+        <v>2</v>
+      </c>
+      <c r="D42" s="34">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E42" s="35" t="s">
         <v>345</v>
       </c>
-      <c r="F42" s="44" t="s">
+      <c r="F42" s="34" t="s">
         <v>155</v>
       </c>
-      <c r="G42" s="47">
-        <v>2.55255255252E11</v>
-      </c>
-      <c r="H42" s="45" t="s">
+      <c r="G42" s="36">
+        <v>255255255252</v>
+      </c>
+      <c r="H42" s="35" t="s">
         <v>346</v>
       </c>
-      <c r="I42" s="45" t="s">
+      <c r="I42" s="35" t="s">
         <v>347</v>
       </c>
-      <c r="J42" s="45" t="s">
+      <c r="J42" s="35" t="s">
         <v>348</v>
       </c>
-      <c r="K42" s="48">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="43" t="s">
+      <c r="K42" s="35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A43" s="33" t="s">
         <v>349</v>
       </c>
-      <c r="B43" s="44">
-        <v>40.0</v>
-      </c>
-      <c r="C43" s="44">
-        <v>2.0</v>
-      </c>
-      <c r="D43" s="44">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="E43" s="45" t="s">
+      <c r="B43" s="34">
+        <v>40</v>
+      </c>
+      <c r="C43" s="34">
+        <v>2</v>
+      </c>
+      <c r="D43" s="34">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E43" s="35" t="s">
         <v>350</v>
       </c>
-      <c r="F43" s="44" t="s">
+      <c r="F43" s="34" t="s">
         <v>155</v>
       </c>
-      <c r="G43" s="47">
-        <v>2.55255255252E11</v>
-      </c>
-      <c r="H43" s="45" t="s">
+      <c r="G43" s="36">
+        <v>255255255252</v>
+      </c>
+      <c r="H43" s="35" t="s">
         <v>351</v>
       </c>
-      <c r="I43" s="45" t="s">
+      <c r="I43" s="35" t="s">
         <v>352</v>
       </c>
-      <c r="J43" s="45" t="s">
+      <c r="J43" s="35" t="s">
         <v>353</v>
       </c>
-      <c r="K43" s="48">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="43" t="s">
+      <c r="K43" s="35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A44" s="33" t="s">
         <v>354</v>
       </c>
-      <c r="B44" s="44">
-        <v>41.0</v>
-      </c>
-      <c r="C44" s="44">
-        <v>2.0</v>
-      </c>
-      <c r="D44" s="44">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="E44" s="45" t="s">
+      <c r="B44" s="34">
+        <v>41</v>
+      </c>
+      <c r="C44" s="34">
+        <v>2</v>
+      </c>
+      <c r="D44" s="34">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E44" s="35" t="s">
         <v>355</v>
       </c>
-      <c r="F44" s="44" t="s">
+      <c r="F44" s="34" t="s">
         <v>155</v>
       </c>
-      <c r="G44" s="47">
-        <v>2.55255255252E11</v>
-      </c>
-      <c r="H44" s="45" t="s">
+      <c r="G44" s="36">
+        <v>255255255252</v>
+      </c>
+      <c r="H44" s="35" t="s">
         <v>356</v>
       </c>
-      <c r="I44" s="45" t="s">
+      <c r="I44" s="35" t="s">
         <v>357</v>
       </c>
-      <c r="J44" s="45" t="s">
+      <c r="J44" s="35" t="s">
         <v>358</v>
       </c>
-      <c r="K44" s="48">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="43" t="s">
+      <c r="K44" s="35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A45" s="33" t="s">
         <v>359</v>
       </c>
-      <c r="B45" s="44">
-        <v>42.0</v>
-      </c>
-      <c r="C45" s="44">
-        <v>2.0</v>
-      </c>
-      <c r="D45" s="44">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="E45" s="45" t="s">
+      <c r="B45" s="34">
+        <v>42</v>
+      </c>
+      <c r="C45" s="34">
+        <v>2</v>
+      </c>
+      <c r="D45" s="34">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E45" s="35" t="s">
         <v>360</v>
       </c>
-      <c r="F45" s="44" t="s">
+      <c r="F45" s="34" t="s">
         <v>155</v>
       </c>
-      <c r="G45" s="47">
-        <v>2.55255255252E11</v>
-      </c>
-      <c r="H45" s="45" t="s">
+      <c r="G45" s="36">
+        <v>255255255252</v>
+      </c>
+      <c r="H45" s="35" t="s">
         <v>361</v>
       </c>
-      <c r="I45" s="45" t="s">
+      <c r="I45" s="35" t="s">
         <v>362</v>
       </c>
-      <c r="J45" s="45" t="s">
+      <c r="J45" s="35" t="s">
         <v>363</v>
       </c>
-      <c r="K45" s="48">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="43" t="s">
+      <c r="K45" s="35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A46" s="33" t="s">
         <v>364</v>
       </c>
-      <c r="B46" s="44">
-        <v>43.0</v>
-      </c>
-      <c r="C46" s="44">
-        <v>2.0</v>
-      </c>
-      <c r="D46" s="44">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="E46" s="45" t="s">
+      <c r="B46" s="34">
+        <v>43</v>
+      </c>
+      <c r="C46" s="34">
+        <v>2</v>
+      </c>
+      <c r="D46" s="34">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E46" s="35" t="s">
         <v>365</v>
       </c>
-      <c r="F46" s="44" t="s">
+      <c r="F46" s="34" t="s">
         <v>155</v>
       </c>
-      <c r="G46" s="47">
-        <v>2.55255255252E11</v>
-      </c>
-      <c r="H46" s="45" t="s">
+      <c r="G46" s="36">
+        <v>255255255252</v>
+      </c>
+      <c r="H46" s="35" t="s">
         <v>366</v>
       </c>
-      <c r="I46" s="45" t="s">
+      <c r="I46" s="35" t="s">
         <v>367</v>
       </c>
-      <c r="J46" s="45" t="s">
+      <c r="J46" s="35" t="s">
         <v>368</v>
       </c>
-      <c r="K46" s="48">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="43" t="s">
+      <c r="K46" s="35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A47" s="33" t="s">
         <v>369</v>
       </c>
-      <c r="B47" s="44">
-        <v>44.0</v>
-      </c>
-      <c r="C47" s="44">
-        <v>2.0</v>
-      </c>
-      <c r="D47" s="44">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="E47" s="45" t="s">
+      <c r="B47" s="34">
+        <v>44</v>
+      </c>
+      <c r="C47" s="34">
+        <v>2</v>
+      </c>
+      <c r="D47" s="34">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E47" s="35" t="s">
         <v>370</v>
       </c>
-      <c r="F47" s="44" t="s">
+      <c r="F47" s="34" t="s">
         <v>155</v>
       </c>
-      <c r="G47" s="47">
-        <v>2.55255255252E11</v>
-      </c>
-      <c r="H47" s="45" t="s">
+      <c r="G47" s="36">
+        <v>255255255252</v>
+      </c>
+      <c r="H47" s="35" t="s">
         <v>371</v>
       </c>
-      <c r="I47" s="45" t="s">
+      <c r="I47" s="35" t="s">
         <v>372</v>
       </c>
-      <c r="J47" s="45" t="s">
+      <c r="J47" s="35" t="s">
         <v>373</v>
       </c>
-      <c r="K47" s="48">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="43" t="s">
+      <c r="K47" s="35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A48" s="33" t="s">
         <v>374</v>
       </c>
-      <c r="B48" s="44">
-        <v>45.0</v>
-      </c>
-      <c r="C48" s="44">
-        <v>2.0</v>
-      </c>
-      <c r="D48" s="44">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="E48" s="45" t="s">
+      <c r="B48" s="34">
+        <v>45</v>
+      </c>
+      <c r="C48" s="34">
+        <v>2</v>
+      </c>
+      <c r="D48" s="34">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E48" s="35" t="s">
         <v>375</v>
       </c>
-      <c r="F48" s="44" t="s">
+      <c r="F48" s="34" t="s">
         <v>155</v>
       </c>
-      <c r="G48" s="47">
-        <v>2.55255255252E11</v>
-      </c>
-      <c r="H48" s="45" t="s">
+      <c r="G48" s="36">
+        <v>255255255252</v>
+      </c>
+      <c r="H48" s="35" t="s">
         <v>376</v>
       </c>
-      <c r="I48" s="45" t="s">
+      <c r="I48" s="35" t="s">
         <v>377</v>
       </c>
-      <c r="J48" s="45" t="s">
+      <c r="J48" s="35" t="s">
         <v>378</v>
       </c>
-      <c r="K48" s="48">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="43" t="s">
+      <c r="K48" s="35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A49" s="33" t="s">
         <v>379</v>
       </c>
-      <c r="B49" s="44">
-        <v>46.0</v>
-      </c>
-      <c r="C49" s="44">
-        <v>2.0</v>
-      </c>
-      <c r="D49" s="44">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="E49" s="45" t="s">
+      <c r="B49" s="34">
+        <v>46</v>
+      </c>
+      <c r="C49" s="34">
+        <v>2</v>
+      </c>
+      <c r="D49" s="34">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E49" s="35" t="s">
         <v>380</v>
       </c>
-      <c r="F49" s="44" t="s">
+      <c r="F49" s="34" t="s">
         <v>155</v>
       </c>
-      <c r="G49" s="47">
-        <v>2.55255255252E11</v>
-      </c>
-      <c r="H49" s="45" t="s">
+      <c r="G49" s="36">
+        <v>255255255252</v>
+      </c>
+      <c r="H49" s="35" t="s">
         <v>381</v>
       </c>
-      <c r="I49" s="45" t="s">
+      <c r="I49" s="35" t="s">
         <v>382</v>
       </c>
-      <c r="J49" s="45" t="s">
+      <c r="J49" s="35" t="s">
         <v>383</v>
       </c>
-      <c r="K49" s="48">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="43" t="s">
+      <c r="K49" s="35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A50" s="33" t="s">
         <v>384</v>
       </c>
-      <c r="B50" s="44">
-        <v>47.0</v>
-      </c>
-      <c r="C50" s="44">
-        <v>2.0</v>
-      </c>
-      <c r="D50" s="44">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="E50" s="45" t="s">
+      <c r="B50" s="34">
+        <v>47</v>
+      </c>
+      <c r="C50" s="34">
+        <v>2</v>
+      </c>
+      <c r="D50" s="34">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E50" s="35" t="s">
         <v>385</v>
       </c>
-      <c r="F50" s="44" t="s">
+      <c r="F50" s="34" t="s">
         <v>155</v>
       </c>
-      <c r="G50" s="47">
-        <v>2.55255255252E11</v>
-      </c>
-      <c r="H50" s="45" t="s">
+      <c r="G50" s="36">
+        <v>255255255252</v>
+      </c>
+      <c r="H50" s="35" t="s">
         <v>386</v>
       </c>
-      <c r="I50" s="45" t="s">
+      <c r="I50" s="35" t="s">
         <v>387</v>
       </c>
-      <c r="J50" s="45" t="s">
+      <c r="J50" s="35" t="s">
         <v>388</v>
       </c>
-      <c r="K50" s="48">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="43" t="s">
+      <c r="K50" s="35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A51" s="33" t="s">
         <v>389</v>
       </c>
-      <c r="B51" s="44">
-        <v>48.0</v>
-      </c>
-      <c r="C51" s="44">
-        <v>2.0</v>
-      </c>
-      <c r="D51" s="44">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="E51" s="45" t="s">
+      <c r="B51" s="34">
+        <v>48</v>
+      </c>
+      <c r="C51" s="34">
+        <v>2</v>
+      </c>
+      <c r="D51" s="34">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E51" s="35" t="s">
         <v>390</v>
       </c>
-      <c r="F51" s="44" t="s">
+      <c r="F51" s="34" t="s">
         <v>155</v>
       </c>
-      <c r="G51" s="47">
-        <v>2.55255255252E11</v>
-      </c>
-      <c r="H51" s="45" t="s">
+      <c r="G51" s="36">
+        <v>255255255252</v>
+      </c>
+      <c r="H51" s="35" t="s">
         <v>391</v>
       </c>
-      <c r="I51" s="45" t="s">
+      <c r="I51" s="35" t="s">
         <v>392</v>
       </c>
-      <c r="J51" s="45" t="s">
+      <c r="J51" s="35" t="s">
         <v>393</v>
       </c>
-      <c r="K51" s="48">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="43" t="s">
+      <c r="K51" s="35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A52" s="33" t="s">
         <v>394</v>
       </c>
-      <c r="B52" s="44">
-        <v>49.0</v>
-      </c>
-      <c r="C52" s="44">
-        <v>2.0</v>
-      </c>
-      <c r="D52" s="44">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="E52" s="45" t="s">
+      <c r="B52" s="34">
+        <v>49</v>
+      </c>
+      <c r="C52" s="34">
+        <v>2</v>
+      </c>
+      <c r="D52" s="34">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E52" s="35" t="s">
         <v>395</v>
       </c>
-      <c r="F52" s="44" t="s">
+      <c r="F52" s="34" t="s">
         <v>155</v>
       </c>
-      <c r="G52" s="47">
-        <v>2.55255255252E11</v>
-      </c>
-      <c r="H52" s="45" t="s">
+      <c r="G52" s="36">
+        <v>255255255252</v>
+      </c>
+      <c r="H52" s="35" t="s">
         <v>396</v>
       </c>
-      <c r="I52" s="45" t="s">
+      <c r="I52" s="35" t="s">
         <v>397</v>
       </c>
-      <c r="J52" s="45" t="s">
+      <c r="J52" s="35" t="s">
         <v>398</v>
       </c>
-      <c r="K52" s="48">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="43" t="s">
+      <c r="K52" s="35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A53" s="33" t="s">
         <v>399</v>
       </c>
-      <c r="B53" s="44">
-        <v>50.0</v>
-      </c>
-      <c r="C53" s="44">
-        <v>2.0</v>
-      </c>
-      <c r="D53" s="44">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="E53" s="45" t="s">
+      <c r="B53" s="34">
+        <v>50</v>
+      </c>
+      <c r="C53" s="34">
+        <v>2</v>
+      </c>
+      <c r="D53" s="34">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E53" s="35" t="s">
         <v>400</v>
       </c>
-      <c r="F53" s="44" t="s">
+      <c r="F53" s="34" t="s">
         <v>155</v>
       </c>
-      <c r="G53" s="47">
-        <v>2.55255255252E11</v>
-      </c>
-      <c r="H53" s="45" t="s">
+      <c r="G53" s="36">
+        <v>255255255252</v>
+      </c>
+      <c r="H53" s="35" t="s">
         <v>401</v>
       </c>
-      <c r="I53" s="45" t="s">
+      <c r="I53" s="35" t="s">
         <v>402</v>
       </c>
-      <c r="J53" s="45" t="s">
+      <c r="J53" s="35" t="s">
         <v>403</v>
       </c>
-      <c r="K53" s="48">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="43" t="s">
+      <c r="K53" s="35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A54" s="33" t="s">
         <v>404</v>
       </c>
-      <c r="B54" s="44">
-        <v>51.0</v>
-      </c>
-      <c r="C54" s="44">
-        <v>2.0</v>
-      </c>
-      <c r="D54" s="44">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="E54" s="45" t="s">
+      <c r="B54" s="34">
+        <v>51</v>
+      </c>
+      <c r="C54" s="34">
+        <v>2</v>
+      </c>
+      <c r="D54" s="34">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E54" s="35" t="s">
         <v>405</v>
       </c>
-      <c r="F54" s="44" t="s">
+      <c r="F54" s="34" t="s">
         <v>155</v>
       </c>
-      <c r="G54" s="47">
-        <v>2.55255255252E11</v>
-      </c>
-      <c r="H54" s="45" t="s">
+      <c r="G54" s="36">
+        <v>255255255252</v>
+      </c>
+      <c r="H54" s="35" t="s">
         <v>406</v>
       </c>
-      <c r="I54" s="45" t="s">
+      <c r="I54" s="35" t="s">
         <v>407</v>
       </c>
-      <c r="J54" s="45" t="s">
+      <c r="J54" s="35" t="s">
         <v>408</v>
       </c>
-      <c r="K54" s="48">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="43" t="s">
+      <c r="K54" s="35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A55" s="33" t="s">
         <v>409</v>
       </c>
-      <c r="B55" s="44">
-        <v>52.0</v>
-      </c>
-      <c r="C55" s="44">
-        <v>2.0</v>
-      </c>
-      <c r="D55" s="44">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="E55" s="45" t="s">
+      <c r="B55" s="34">
+        <v>52</v>
+      </c>
+      <c r="C55" s="34">
+        <v>2</v>
+      </c>
+      <c r="D55" s="34">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E55" s="35" t="s">
         <v>410</v>
       </c>
-      <c r="F55" s="44" t="s">
+      <c r="F55" s="34" t="s">
         <v>155</v>
       </c>
-      <c r="G55" s="47">
-        <v>2.55255255252E11</v>
-      </c>
-      <c r="H55" s="45" t="s">
+      <c r="G55" s="36">
+        <v>255255255252</v>
+      </c>
+      <c r="H55" s="35" t="s">
         <v>411</v>
       </c>
-      <c r="I55" s="45" t="s">
+      <c r="I55" s="35" t="s">
         <v>412</v>
       </c>
-      <c r="J55" s="45" t="s">
+      <c r="J55" s="35" t="s">
         <v>413</v>
       </c>
-      <c r="K55" s="48">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="43" t="s">
+      <c r="K55" s="35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A56" s="33" t="s">
         <v>414</v>
       </c>
-      <c r="B56" s="44">
-        <v>53.0</v>
-      </c>
-      <c r="C56" s="44">
-        <v>2.0</v>
-      </c>
-      <c r="D56" s="44">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="E56" s="45" t="s">
+      <c r="B56" s="34">
+        <v>53</v>
+      </c>
+      <c r="C56" s="34">
+        <v>2</v>
+      </c>
+      <c r="D56" s="34">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E56" s="35" t="s">
         <v>415</v>
       </c>
-      <c r="F56" s="44" t="s">
+      <c r="F56" s="34" t="s">
         <v>155</v>
       </c>
-      <c r="G56" s="47">
-        <v>2.55255255252E11</v>
-      </c>
-      <c r="H56" s="45" t="s">
+      <c r="G56" s="36">
+        <v>255255255252</v>
+      </c>
+      <c r="H56" s="35" t="s">
         <v>416</v>
       </c>
-      <c r="I56" s="45" t="s">
+      <c r="I56" s="35" t="s">
         <v>417</v>
       </c>
-      <c r="J56" s="45" t="s">
+      <c r="J56" s="35" t="s">
         <v>418</v>
       </c>
-      <c r="K56" s="48">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="43" t="s">
+      <c r="K56" s="35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A57" s="33" t="s">
         <v>419</v>
       </c>
-      <c r="B57" s="44">
-        <v>54.0</v>
-      </c>
-      <c r="C57" s="44">
-        <v>2.0</v>
-      </c>
-      <c r="D57" s="44">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="E57" s="45" t="s">
+      <c r="B57" s="34">
+        <v>54</v>
+      </c>
+      <c r="C57" s="34">
+        <v>2</v>
+      </c>
+      <c r="D57" s="34">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E57" s="35" t="s">
         <v>420</v>
       </c>
-      <c r="F57" s="44" t="s">
+      <c r="F57" s="34" t="s">
         <v>155</v>
       </c>
-      <c r="G57" s="47">
-        <v>2.55255255252E11</v>
-      </c>
-      <c r="H57" s="45" t="s">
+      <c r="G57" s="36">
+        <v>255255255252</v>
+      </c>
+      <c r="H57" s="35" t="s">
         <v>421</v>
       </c>
-      <c r="I57" s="45" t="s">
+      <c r="I57" s="35" t="s">
         <v>422</v>
       </c>
-      <c r="J57" s="45" t="s">
+      <c r="J57" s="35" t="s">
         <v>423</v>
       </c>
-      <c r="K57" s="48">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="43" t="s">
+      <c r="K57" s="35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A58" s="33" t="s">
         <v>424</v>
       </c>
-      <c r="B58" s="44">
-        <v>55.0</v>
-      </c>
-      <c r="C58" s="44">
-        <v>2.0</v>
-      </c>
-      <c r="D58" s="44">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="E58" s="45" t="s">
+      <c r="B58" s="34">
+        <v>55</v>
+      </c>
+      <c r="C58" s="34">
+        <v>2</v>
+      </c>
+      <c r="D58" s="34">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E58" s="35" t="s">
         <v>425</v>
       </c>
-      <c r="F58" s="44" t="s">
+      <c r="F58" s="34" t="s">
         <v>155</v>
       </c>
-      <c r="G58" s="47">
-        <v>2.55255255252E11</v>
-      </c>
-      <c r="H58" s="45" t="s">
+      <c r="G58" s="36">
+        <v>255255255252</v>
+      </c>
+      <c r="H58" s="35" t="s">
         <v>426</v>
       </c>
-      <c r="I58" s="45" t="s">
+      <c r="I58" s="35" t="s">
         <v>427</v>
       </c>
-      <c r="J58" s="45" t="s">
+      <c r="J58" s="35" t="s">
         <v>428</v>
       </c>
-      <c r="K58" s="48">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="43" t="s">
+      <c r="K58" s="35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A59" s="33" t="s">
         <v>429</v>
       </c>
-      <c r="B59" s="44">
-        <v>56.0</v>
-      </c>
-      <c r="C59" s="44">
-        <v>2.0</v>
-      </c>
-      <c r="D59" s="44">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="E59" s="45" t="s">
+      <c r="B59" s="34">
+        <v>56</v>
+      </c>
+      <c r="C59" s="34">
+        <v>2</v>
+      </c>
+      <c r="D59" s="34">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E59" s="35" t="s">
         <v>430</v>
       </c>
-      <c r="F59" s="44" t="s">
+      <c r="F59" s="34" t="s">
         <v>155</v>
       </c>
-      <c r="G59" s="47">
-        <v>2.55255255252E11</v>
-      </c>
-      <c r="H59" s="45" t="s">
+      <c r="G59" s="36">
+        <v>255255255252</v>
+      </c>
+      <c r="H59" s="35" t="s">
         <v>431</v>
       </c>
-      <c r="I59" s="45" t="s">
+      <c r="I59" s="35" t="s">
         <v>432</v>
       </c>
-      <c r="J59" s="45" t="s">
+      <c r="J59" s="35" t="s">
         <v>433</v>
       </c>
-      <c r="K59" s="48">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="43" t="s">
+      <c r="K59" s="35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A60" s="33" t="s">
         <v>434</v>
       </c>
-      <c r="B60" s="44">
-        <v>57.0</v>
-      </c>
-      <c r="C60" s="44">
-        <v>2.0</v>
-      </c>
-      <c r="D60" s="44">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="E60" s="45" t="s">
+      <c r="B60" s="34">
+        <v>57</v>
+      </c>
+      <c r="C60" s="34">
+        <v>2</v>
+      </c>
+      <c r="D60" s="34">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E60" s="35" t="s">
         <v>435</v>
       </c>
-      <c r="F60" s="44" t="s">
+      <c r="F60" s="34" t="s">
         <v>155</v>
       </c>
-      <c r="G60" s="47">
-        <v>2.55255255252E11</v>
-      </c>
-      <c r="H60" s="45" t="s">
+      <c r="G60" s="36">
+        <v>255255255252</v>
+      </c>
+      <c r="H60" s="35" t="s">
         <v>436</v>
       </c>
-      <c r="I60" s="45" t="s">
+      <c r="I60" s="35" t="s">
         <v>437</v>
       </c>
-      <c r="J60" s="45" t="s">
+      <c r="J60" s="35" t="s">
         <v>438</v>
       </c>
-      <c r="K60" s="48">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="43" t="s">
+      <c r="K60" s="35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A61" s="33" t="s">
         <v>439</v>
       </c>
-      <c r="B61" s="44">
-        <v>58.0</v>
-      </c>
-      <c r="C61" s="44">
-        <v>2.0</v>
-      </c>
-      <c r="D61" s="44">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="E61" s="45" t="s">
+      <c r="B61" s="34">
+        <v>58</v>
+      </c>
+      <c r="C61" s="34">
+        <v>2</v>
+      </c>
+      <c r="D61" s="34">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E61" s="35" t="s">
         <v>440</v>
       </c>
-      <c r="F61" s="44" t="s">
+      <c r="F61" s="34" t="s">
         <v>155</v>
       </c>
-      <c r="G61" s="47">
-        <v>2.55255255252E11</v>
-      </c>
-      <c r="H61" s="45" t="s">
+      <c r="G61" s="36">
+        <v>255255255252</v>
+      </c>
+      <c r="H61" s="35" t="s">
         <v>441</v>
       </c>
-      <c r="I61" s="45" t="s">
+      <c r="I61" s="35" t="s">
         <v>442</v>
       </c>
-      <c r="J61" s="45" t="s">
+      <c r="J61" s="35" t="s">
         <v>443</v>
       </c>
-      <c r="K61" s="48">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="43" t="s">
+      <c r="K61" s="35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A62" s="33" t="s">
         <v>444</v>
       </c>
-      <c r="B62" s="44">
-        <v>59.0</v>
-      </c>
-      <c r="C62" s="44">
-        <v>2.0</v>
-      </c>
-      <c r="D62" s="44">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="E62" s="45" t="s">
+      <c r="B62" s="34">
+        <v>59</v>
+      </c>
+      <c r="C62" s="34">
+        <v>2</v>
+      </c>
+      <c r="D62" s="34">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E62" s="35" t="s">
         <v>445</v>
       </c>
-      <c r="F62" s="44" t="s">
+      <c r="F62" s="34" t="s">
         <v>155</v>
       </c>
-      <c r="G62" s="47">
-        <v>2.55255255252E11</v>
-      </c>
-      <c r="H62" s="45" t="s">
+      <c r="G62" s="36">
+        <v>255255255252</v>
+      </c>
+      <c r="H62" s="35" t="s">
         <v>446</v>
       </c>
-      <c r="I62" s="45" t="s">
+      <c r="I62" s="35" t="s">
         <v>447</v>
       </c>
-      <c r="J62" s="45" t="s">
+      <c r="J62" s="35" t="s">
         <v>448</v>
       </c>
-      <c r="K62" s="48">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="43" t="s">
+      <c r="K62" s="35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A63" s="33" t="s">
         <v>449</v>
       </c>
-      <c r="B63" s="44">
-        <v>60.0</v>
-      </c>
-      <c r="C63" s="44">
-        <v>2.0</v>
-      </c>
-      <c r="D63" s="44">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="E63" s="45" t="s">
+      <c r="B63" s="34">
+        <v>60</v>
+      </c>
+      <c r="C63" s="34">
+        <v>2</v>
+      </c>
+      <c r="D63" s="34">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E63" s="35" t="s">
         <v>450</v>
       </c>
-      <c r="F63" s="44" t="s">
+      <c r="F63" s="34" t="s">
         <v>155</v>
       </c>
-      <c r="G63" s="47">
-        <v>2.55255255252E11</v>
-      </c>
-      <c r="H63" s="45" t="s">
+      <c r="G63" s="36">
+        <v>255255255252</v>
+      </c>
+      <c r="H63" s="35" t="s">
         <v>451</v>
       </c>
-      <c r="I63" s="45" t="s">
+      <c r="I63" s="35" t="s">
         <v>452</v>
       </c>
-      <c r="J63" s="45" t="s">
+      <c r="J63" s="35" t="s">
         <v>453</v>
       </c>
-      <c r="K63" s="48">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="64" ht="15.75" customHeight="1">
-      <c r="C64" s="3" t="s">
+      <c r="K63" s="35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" ht="15.75" customHeight="1">
+      <c r="C64" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="D64" s="3">
+      <c r="D64" s="1">
         <f>SUM(D4:D63)</f>
         <v>120</v>
       </c>
-      <c r="E64" s="45" t="s">
+      <c r="E64" s="35" t="s">
         <v>455</v>
       </c>
-      <c r="F64" s="44"/>
+      <c r="F64" s="34"/>
     </row>
     <row r="65" ht="15.75" customHeight="1"/>
     <row r="66" ht="15.75" customHeight="1"/>
@@ -7319,16 +7347,14 @@
     <row r="990" ht="15.75" customHeight="1"/>
     <row r="991" ht="15.75" customHeight="1"/>
     <row r="992" ht="15.75" customHeight="1"/>
-    <row r="993" ht="15.75" customHeight="1">
-      <c r="F993" s="44"/>
+    <row r="993" spans="6:6" ht="15.75" customHeight="1">
+      <c r="F993" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
   </mergeCells>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>